--- a/BackTest/2019-11-02 BackTest FNB.xlsx
+++ b/BackTest/2019-11-02 BackTest FNB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.4999999999999964</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>50.00000000000044</v>
+      </c>
       <c r="L12" t="n">
         <v>18.41</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>18.42</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>18.42</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.6999999999999957</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>18.41</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.6999999999999957</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333254</v>
+      </c>
       <c r="L16" t="n">
         <v>18.41</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.899999999999995</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>20.00000000000028</v>
+      </c>
       <c r="L17" t="n">
         <v>18.42</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.899999999999995</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20.00000000000028</v>
+      </c>
       <c r="L18" t="n">
         <v>18.43</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20.00000000000028</v>
+      </c>
       <c r="L19" t="n">
         <v>18.43</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-20.00000000000028</v>
+      </c>
       <c r="L20" t="n">
         <v>18.42</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>18.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-19.99999999999972</v>
+      </c>
       <c r="L22" t="n">
         <v>18.38</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K23" t="n">
-        <v>-9.090909090909268</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>18.36</v>
@@ -1466,7 +1488,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>-20</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L24" t="n">
         <v>18.34</v>
@@ -1515,7 +1537,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>-20</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L25" t="n">
         <v>18.33</v>
@@ -1564,7 +1586,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L26" t="n">
         <v>18.33</v>
@@ -1613,7 +1635,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-19.99999999999986</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L27" t="n">
         <v>18.3</v>
@@ -1662,7 +1684,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>-19.99999999999986</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L28" t="n">
         <v>18.27</v>
@@ -1711,7 +1733,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-19.99999999999986</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L29" t="n">
         <v>18.24999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>1.5</v>
       </c>
       <c r="K31" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>18.22999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>1.5</v>
       </c>
       <c r="K32" t="n">
-        <v>-19.99999999999986</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>18.22999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>1.5</v>
       </c>
       <c r="K33" t="n">
-        <v>-11.11111111111085</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>18.23999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>18.23999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>18.23999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>18.22999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-42.85714285714256</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>18.22999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>1.700000000000003</v>
       </c>
       <c r="K38" t="n">
-        <v>-24.99999999999967</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>18.23999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>1.700000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>-14.28571428571385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>18.25</v>
@@ -2268,7 +2290,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K40" t="n">
-        <v>-24.99999999999967</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>18.25</v>
@@ -2421,7 +2443,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K43" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>18.25</v>
@@ -2574,7 +2596,7 @@
         <v>2.000000000000007</v>
       </c>
       <c r="K46" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>18.25</v>
@@ -2625,7 +2647,7 @@
         <v>2.000000000000007</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>18.25</v>
@@ -2676,7 +2698,7 @@
         <v>2.000000000000007</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>18.23999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>2.100000000000009</v>
       </c>
       <c r="K50" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>18.23999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>2.20000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>18.22999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>2.300000000000011</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>18.22999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>2.300000000000011</v>
       </c>
       <c r="K54" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>18.23999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>2.300000000000011</v>
       </c>
       <c r="K55" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>18.25</v>
@@ -3084,7 +3106,7 @@
         <v>2.300000000000011</v>
       </c>
       <c r="K56" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>18.26</v>
@@ -3186,7 +3208,7 @@
         <v>2.600000000000012</v>
       </c>
       <c r="K58" t="n">
-        <v>11.11111111111076</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L58" t="n">
         <v>18.28</v>
@@ -3288,7 +3310,7 @@
         <v>2.70000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>18.29</v>
@@ -3339,7 +3361,7 @@
         <v>2.70000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L61" t="n">
         <v>18.29</v>
@@ -3594,7 +3616,7 @@
         <v>2.900000000000009</v>
       </c>
       <c r="K66" t="n">
-        <v>33.33333333333333</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L66" t="n">
         <v>18.36</v>
@@ -3645,7 +3667,7 @@
         <v>3.000000000000011</v>
       </c>
       <c r="K67" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>18.38</v>
@@ -3696,7 +3718,7 @@
         <v>3.000000000000011</v>
       </c>
       <c r="K68" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L68" t="n">
         <v>18.38</v>
@@ -3747,7 +3769,7 @@
         <v>3.000000000000011</v>
       </c>
       <c r="K69" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L69" t="n">
         <v>18.39</v>
@@ -3798,7 +3820,7 @@
         <v>3.000000000000011</v>
       </c>
       <c r="K70" t="n">
-        <v>11.11111111111085</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L70" t="n">
         <v>18.4</v>
@@ -3849,7 +3871,7 @@
         <v>3.100000000000012</v>
       </c>
       <c r="K71" t="n">
-        <v>19.99999999999986</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L71" t="n">
         <v>18.42</v>
@@ -3900,7 +3922,7 @@
         <v>3.100000000000012</v>
       </c>
       <c r="K72" t="n">
-        <v>33.33333333333333</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L72" t="n">
         <v>18.44</v>
@@ -3951,7 +3973,7 @@
         <v>3.100000000000012</v>
       </c>
       <c r="K73" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>18.46</v>
@@ -4002,7 +4024,7 @@
         <v>3.300000000000011</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L74" t="n">
         <v>18.44</v>
@@ -4053,7 +4075,7 @@
         <v>3.500000000000011</v>
       </c>
       <c r="K75" t="n">
-        <v>16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>18.44</v>
@@ -4104,7 +4126,7 @@
         <v>3.500000000000011</v>
       </c>
       <c r="K76" t="n">
-        <v>16.66666666666662</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L76" t="n">
         <v>18.44</v>
@@ -4155,7 +4177,7 @@
         <v>3.500000000000011</v>
       </c>
       <c r="K77" t="n">
-        <v>27.27272727272739</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L77" t="n">
         <v>18.45</v>
@@ -4206,7 +4228,7 @@
         <v>3.500000000000011</v>
       </c>
       <c r="K78" t="n">
-        <v>11.11111111111129</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L78" t="n">
         <v>18.46</v>
@@ -4257,7 +4279,7 @@
         <v>3.500000000000011</v>
       </c>
       <c r="K79" t="n">
-        <v>24.99999999999989</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L79" t="n">
         <v>18.47</v>
@@ -4308,7 +4330,7 @@
         <v>3.500000000000011</v>
       </c>
       <c r="K80" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>18.48</v>
@@ -4359,7 +4381,7 @@
         <v>3.600000000000012</v>
       </c>
       <c r="K81" t="n">
-        <v>33.33333333333333</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L81" t="n">
         <v>18.49</v>
@@ -4410,7 +4432,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>39.99999999999986</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>18.51</v>
@@ -4461,7 +4483,7 @@
         <v>3.900000000000009</v>
       </c>
       <c r="K83" t="n">
-        <v>49.99999999999985</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
         <v>18.55</v>
@@ -4512,7 +4534,7 @@
         <v>4.000000000000011</v>
       </c>
       <c r="K84" t="n">
-        <v>45.4545454545454</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
         <v>18.62</v>
@@ -4563,7 +4585,7 @@
         <v>4.000000000000011</v>
       </c>
       <c r="K85" t="n">
-        <v>45.4545454545454</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
         <v>18.66999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>4.000000000000011</v>
       </c>
       <c r="K86" t="n">
-        <v>45.4545454545454</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
         <v>18.72</v>
@@ -4665,7 +4687,7 @@
         <v>4.100000000000012</v>
       </c>
       <c r="K87" t="n">
-        <v>45.4545454545454</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L87" t="n">
         <v>18.76</v>
@@ -4716,7 +4738,7 @@
         <v>4.20000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>33.33333333333353</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L88" t="n">
         <v>18.79</v>
@@ -4767,7 +4789,7 @@
         <v>4.300000000000008</v>
       </c>
       <c r="K89" t="n">
-        <v>38.46153846153855</v>
+        <v>50</v>
       </c>
       <c r="L89" t="n">
         <v>18.83</v>
@@ -4818,7 +4840,7 @@
         <v>4.300000000000008</v>
       </c>
       <c r="K90" t="n">
-        <v>38.46153846153855</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L90" t="n">
         <v>18.87</v>
@@ -4920,7 +4942,7 @@
         <v>4.400000000000009</v>
       </c>
       <c r="K92" t="n">
-        <v>38.46153846153855</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L92" t="n">
         <v>18.93</v>
@@ -4971,7 +4993,7 @@
         <v>4.400000000000009</v>
       </c>
       <c r="K93" t="n">
-        <v>38.46153846153855</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>18.94</v>
@@ -5022,7 +5044,7 @@
         <v>4.500000000000011</v>
       </c>
       <c r="K94" t="n">
-        <v>66.66666666666676</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L94" t="n">
         <v>18.95</v>
@@ -5073,7 +5095,7 @@
         <v>4.500000000000011</v>
       </c>
       <c r="K95" t="n">
-        <v>60.00000000000014</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L95" t="n">
         <v>18.96</v>
@@ -5124,7 +5146,7 @@
         <v>4.600000000000012</v>
       </c>
       <c r="K96" t="n">
-        <v>45.4545454545454</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L96" t="n">
         <v>18.96</v>
@@ -5175,7 +5197,7 @@
         <v>4.600000000000012</v>
       </c>
       <c r="K97" t="n">
-        <v>45.4545454545454</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L97" t="n">
         <v>18.97</v>
@@ -5226,7 +5248,7 @@
         <v>4.800000000000011</v>
       </c>
       <c r="K98" t="n">
-        <v>23.07692307692312</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L98" t="n">
         <v>18.97</v>
@@ -5277,7 +5299,7 @@
         <v>4.900000000000009</v>
       </c>
       <c r="K99" t="n">
-        <v>28.5714285714285</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>18.97</v>
@@ -5328,7 +5350,7 @@
         <v>5.000000000000007</v>
       </c>
       <c r="K100" t="n">
-        <v>20.0000000000001</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L100" t="n">
         <v>18.96</v>
@@ -5379,7 +5401,7 @@
         <v>5.100000000000005</v>
       </c>
       <c r="K101" t="n">
-        <v>19.9999999999999</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L101" t="n">
         <v>18.96</v>
@@ -5430,7 +5452,7 @@
         <v>5.100000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L102" t="n">
         <v>18.95</v>
@@ -5481,7 +5503,7 @@
         <v>5.200000000000003</v>
       </c>
       <c r="K103" t="n">
-        <v>-7.692307692307566</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L103" t="n">
         <v>18.93</v>
@@ -5532,7 +5554,7 @@
         <v>5.300000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>-7.69230769230786</v>
+        <v>-25.00000000000067</v>
       </c>
       <c r="L104" t="n">
         <v>18.91</v>
@@ -5583,7 +5605,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>-14.28571428571436</v>
+        <v>-25.00000000000033</v>
       </c>
       <c r="L105" t="n">
         <v>18.88</v>
@@ -5634,7 +5656,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K106" t="n">
-        <v>-6.666666666666825</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L106" t="n">
         <v>18.87</v>
@@ -5685,7 +5707,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L107" t="n">
         <v>18.86000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K108" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>18.87</v>
@@ -5787,7 +5809,7 @@
         <v>5.599999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>7.69230769230786</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L109" t="n">
         <v>18.88</v>
@@ -5838,7 +5860,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L110" t="n">
         <v>18.91</v>
@@ -5889,7 +5911,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>14.28571428571458</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L111" t="n">
         <v>18.93</v>
@@ -5940,7 +5962,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>7.69230769230786</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L112" t="n">
         <v>18.95</v>
@@ -5991,7 +6013,7 @@
         <v>5.799999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>14.28571428571436</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L113" t="n">
         <v>18.99</v>
@@ -6042,7 +6064,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K114" t="n">
-        <v>14.28571428571436</v>
+        <v>100</v>
       </c>
       <c r="L114" t="n">
         <v>19.03</v>
@@ -6093,7 +6115,7 @@
         <v>5.999999999999996</v>
       </c>
       <c r="K115" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L115" t="n">
         <v>19.09</v>
@@ -6144,7 +6166,7 @@
         <v>5.999999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>28.57142857142879</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
         <v>19.14</v>
@@ -6195,7 +6217,7 @@
         <v>5.999999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>28.57142857142879</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
         <v>19.19</v>
@@ -6246,7 +6268,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>53.84615384615435</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
         <v>19.25</v>
@@ -6297,7 +6319,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>50.00000000000059</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>19.3</v>
@@ -6348,7 +6370,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>63.6363636363641</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>19.34</v>
@@ -6399,7 +6421,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>60.00000000000056</v>
+        <v>100</v>
       </c>
       <c r="L121" t="n">
         <v>19.38</v>
@@ -6450,7 +6472,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>63.63636363636422</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
         <v>19.43</v>
@@ -6501,7 +6523,7 @@
         <v>6.300000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>63.63636363636369</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L123" t="n">
         <v>19.46</v>
@@ -6552,7 +6574,7 @@
         <v>6.300000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>60.00000000000014</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>19.48</v>
@@ -6603,7 +6625,7 @@
         <v>6.300000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>77.77777777777752</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>19.49</v>
@@ -6654,7 +6676,7 @@
         <v>6.400000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>77.7777777777776</v>
+        <v>50</v>
       </c>
       <c r="L126" t="n">
         <v>19.51</v>
@@ -6705,7 +6727,7 @@
         <v>6.400000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>77.7777777777776</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>19.52999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>6.400000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>77.7777777777776</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>19.54</v>
@@ -6807,7 +6829,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K129" t="n">
-        <v>39.99999999999957</v>
+        <v>-20</v>
       </c>
       <c r="L129" t="n">
         <v>19.52999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K130" t="n">
-        <v>45.45454545454511</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L130" t="n">
         <v>19.54</v>
@@ -6909,7 +6931,7 @@
         <v>7.000000000000011</v>
       </c>
       <c r="K131" t="n">
-        <v>23.07692307692266</v>
+        <v>-25</v>
       </c>
       <c r="L131" t="n">
         <v>19.52999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>7.000000000000011</v>
       </c>
       <c r="K132" t="n">
-        <v>23.07692307692266</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>19.51</v>
@@ -7011,7 +7033,7 @@
         <v>7.000000000000011</v>
       </c>
       <c r="K133" t="n">
-        <v>16.66666666666642</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>19.5</v>
@@ -7062,7 +7084,7 @@
         <v>7.100000000000012</v>
       </c>
       <c r="K134" t="n">
-        <v>16.66666666666642</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>19.5</v>
@@ -7113,7 +7135,7 @@
         <v>7.300000000000011</v>
       </c>
       <c r="K135" t="n">
-        <v>-7.69230769230744</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L135" t="n">
         <v>19.48</v>
@@ -7164,7 +7186,7 @@
         <v>7.300000000000011</v>
       </c>
       <c r="K136" t="n">
-        <v>-7.69230769230744</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L136" t="n">
         <v>19.45</v>
@@ -7215,7 +7237,7 @@
         <v>7.500000000000011</v>
       </c>
       <c r="K137" t="n">
-        <v>6.666666666666698</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L137" t="n">
         <v>19.44</v>
@@ -7266,7 +7288,7 @@
         <v>7.600000000000012</v>
       </c>
       <c r="K138" t="n">
-        <v>6.666666666666698</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L138" t="n">
         <v>19.44</v>
@@ -7317,7 +7339,7 @@
         <v>7.700000000000014</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L139" t="n">
         <v>19.45</v>
@@ -7368,7 +7390,7 @@
         <v>7.700000000000014</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L140" t="n">
         <v>19.44</v>
@@ -7419,7 +7441,7 @@
         <v>7.800000000000015</v>
       </c>
       <c r="K141" t="n">
-        <v>-5.882352941176496</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>19.44</v>
@@ -7470,7 +7492,7 @@
         <v>7.900000000000016</v>
       </c>
       <c r="K142" t="n">
-        <v>-5.882352941176496</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L142" t="n">
         <v>19.45</v>
@@ -7572,7 +7594,7 @@
         <v>7.900000000000016</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L144" t="n">
         <v>19.46</v>
@@ -7623,7 +7645,7 @@
         <v>7.900000000000016</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L145" t="n">
         <v>19.48</v>
@@ -7674,7 +7696,7 @@
         <v>8.100000000000016</v>
       </c>
       <c r="K146" t="n">
-        <v>5.882352941176299</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L146" t="n">
         <v>19.52</v>
@@ -7725,7 +7747,7 @@
         <v>8.100000000000016</v>
       </c>
       <c r="K147" t="n">
-        <v>5.882352941176299</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L147" t="n">
         <v>19.54</v>
@@ -7776,7 +7798,7 @@
         <v>8.200000000000014</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L148" t="n">
         <v>19.54</v>
@@ -7827,7 +7849,7 @@
         <v>8.200000000000014</v>
       </c>
       <c r="K149" t="n">
-        <v>12.50000000000011</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L149" t="n">
         <v>19.54999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>8.200000000000014</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L150" t="n">
         <v>19.56</v>
@@ -7929,7 +7951,7 @@
         <v>8.300000000000011</v>
       </c>
       <c r="K151" t="n">
-        <v>23.07692307692312</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L151" t="n">
         <v>19.58999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>8.300000000000011</v>
       </c>
       <c r="K152" t="n">
-        <v>23.07692307692312</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L152" t="n">
         <v>19.60999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>8.400000000000013</v>
       </c>
       <c r="K153" t="n">
-        <v>28.57142857142868</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L153" t="n">
         <v>19.63999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>8.500000000000014</v>
       </c>
       <c r="K154" t="n">
-        <v>14.28571428571421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>19.65999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>8.600000000000012</v>
       </c>
       <c r="K155" t="n">
-        <v>23.07692307692312</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L155" t="n">
         <v>19.66999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>8.600000000000012</v>
       </c>
       <c r="K156" t="n">
-        <v>23.07692307692312</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L156" t="n">
         <v>19.65999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>8.600000000000012</v>
       </c>
       <c r="K157" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>19.64999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>20</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L159" t="n">
         <v>19.65999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>19.66999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>33.3333333333336</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>19.66999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>25.00000000000011</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L162" t="n">
         <v>19.66999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>8.800000000000008</v>
       </c>
       <c r="K163" t="n">
-        <v>11.11111111111137</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>19.64999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K164" t="n">
-        <v>20.00000000000014</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>19.64999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K165" t="n">
-        <v>20.00000000000014</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>19.65999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>19.66999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>19.67999999999999</v>
@@ -8796,7 +8818,7 @@
         <v>9.000000000000007</v>
       </c>
       <c r="K168" t="n">
-        <v>25.00000000000011</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L168" t="n">
         <v>19.69999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>9.100000000000009</v>
       </c>
       <c r="K169" t="n">
-        <v>11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>19.69999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>9.100000000000009</v>
       </c>
       <c r="K170" t="n">
-        <v>11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>19.69999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>9.400000000000009</v>
       </c>
       <c r="K171" t="n">
-        <v>27.27272727272739</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L171" t="n">
         <v>19.72999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>9.500000000000011</v>
       </c>
       <c r="K172" t="n">
-        <v>16.66666666666662</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L172" t="n">
         <v>19.74999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>9.500000000000011</v>
       </c>
       <c r="K173" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L173" t="n">
         <v>19.77999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>9.600000000000012</v>
       </c>
       <c r="K174" t="n">
-        <v>27.27272727272739</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L174" t="n">
         <v>19.81</v>
@@ -9153,7 +9175,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>59.99999999999991</v>
+        <v>66.66666666666637</v>
       </c>
       <c r="L175" t="n">
         <v>19.88999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>49.99999999999978</v>
+        <v>53.84615384615346</v>
       </c>
       <c r="L176" t="n">
         <v>19.96</v>
@@ -9255,7 +9277,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>49.99999999999978</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L177" t="n">
         <v>20.03</v>
@@ -9306,7 +9328,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>49.99999999999978</v>
+        <v>63.63636363636328</v>
       </c>
       <c r="L178" t="n">
         <v>20.09</v>
@@ -9357,7 +9379,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>46.66666666666651</v>
+        <v>63.63636363636328</v>
       </c>
       <c r="L179" t="n">
         <v>20.16</v>
@@ -9408,7 +9430,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>46.66666666666651</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L180" t="n">
         <v>20.23</v>
@@ -9459,7 +9481,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>29.41176470588231</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>20.25</v>
@@ -9510,7 +9532,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>29.41176470588231</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>20.28</v>
@@ -9561,7 +9583,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>29.41176470588231</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L183" t="n">
         <v>20.3</v>
@@ -9612,7 +9634,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>29.41176470588231</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L184" t="n">
         <v>20.32</v>
@@ -9663,7 +9685,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>29.41176470588231</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L185" t="n">
         <v>20.29</v>
@@ -9714,7 +9736,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>9.999999999999947</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L186" t="n">
         <v>20.23999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L187" t="n">
         <v>20.2</v>
@@ -9816,7 +9838,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>4.761904761904649</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L188" t="n">
         <v>20.15</v>
@@ -9867,7 +9889,7 @@
         <v>11.20000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>14.28571428571428</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L189" t="n">
         <v>20.10999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>11.20000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>14.28571428571428</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L190" t="n">
         <v>20.06999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>5.263157894736901</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L191" t="n">
         <v>20.06</v>
@@ -10020,7 +10042,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>20.00000000000007</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L192" t="n">
         <v>20.07</v>
@@ -10071,7 +10093,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>20.00000000000007</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L193" t="n">
         <v>20.09</v>
@@ -10122,7 +10144,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>15.78947368421055</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L194" t="n">
         <v>20.1</v>
@@ -10173,7 +10195,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K195" t="n">
-        <v>-20</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L195" t="n">
         <v>20.1</v>
@@ -10224,7 +10246,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L196" t="n">
         <v>20.15</v>
@@ -10275,7 +10297,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>-5.882352941176348</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L197" t="n">
         <v>20.18</v>
@@ -10326,7 +10348,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L198" t="n">
         <v>20.23</v>
@@ -10377,7 +10399,7 @@
         <v>12.10000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>-5.263157894736744</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L199" t="n">
         <v>20.26</v>
@@ -10428,7 +10450,7 @@
         <v>12.30000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>-14.28571428571419</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>20.27</v>
@@ -10479,7 +10501,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L201" t="n">
         <v>20.28</v>
@@ -10530,7 +10552,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L202" t="n">
         <v>20.27</v>
@@ -10581,7 +10603,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>5.263157894736744</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L203" t="n">
         <v>20.26</v>
@@ -10683,7 +10705,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L205" t="n">
         <v>20.24999999999999</v>
@@ -10734,7 +10756,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>20.0000000000001</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L206" t="n">
         <v>20.22999999999999</v>
@@ -10785,7 +10807,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>14.28571428571428</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L207" t="n">
         <v>20.21999999999999</v>
@@ -10836,7 +10858,7 @@
         <v>12.5</v>
       </c>
       <c r="K208" t="n">
-        <v>14.28571428571458</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L208" t="n">
         <v>20.18999999999999</v>
@@ -10887,7 +10909,7 @@
         <v>12.5</v>
       </c>
       <c r="K209" t="n">
-        <v>7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>20.16999999999999</v>
@@ -10938,7 +10960,7 @@
         <v>12.5</v>
       </c>
       <c r="K210" t="n">
-        <v>7.69230769230786</v>
+        <v>-100</v>
       </c>
       <c r="L210" t="n">
         <v>20.16999999999999</v>
@@ -10989,7 +11011,7 @@
         <v>12.5</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L211" t="n">
         <v>20.15999999999999</v>
@@ -11040,7 +11062,7 @@
         <v>12.5</v>
       </c>
       <c r="K212" t="n">
-        <v>-20.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L212" t="n">
         <v>20.14999999999999</v>
@@ -11091,7 +11113,7 @@
         <v>12.6</v>
       </c>
       <c r="K213" t="n">
-        <v>-27.27272727272756</v>
+        <v>-100</v>
       </c>
       <c r="L213" t="n">
         <v>20.12999999999999</v>
@@ -11142,7 +11164,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-16.66666666666671</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L214" t="n">
         <v>20.11999999999999</v>
@@ -11193,7 +11215,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>-9.090909090908973</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L215" t="n">
         <v>20.10999999999999</v>
@@ -11244,7 +11266,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>-40.00000000000014</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L216" t="n">
         <v>20.08999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>-33.3333333333336</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L217" t="n">
         <v>20.06999999999999</v>
@@ -11346,7 +11368,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L218" t="n">
         <v>20.06</v>
@@ -11397,7 +11419,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-50.00000000000022</v>
+        <v>-50</v>
       </c>
       <c r="L219" t="n">
         <v>20.04</v>
@@ -11448,7 +11470,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>-33.33333333333373</v>
+        <v>-50</v>
       </c>
       <c r="L220" t="n">
         <v>20.02</v>
@@ -11499,7 +11521,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>-33.33333333333294</v>
+        <v>-20</v>
       </c>
       <c r="L221" t="n">
         <v>20.01</v>
@@ -11550,7 +11572,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>-49.99999999999956</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L222" t="n">
         <v>19.98</v>
@@ -11601,7 +11623,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L223" t="n">
         <v>19.97</v>
@@ -11652,7 +11674,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>-19.99999999999986</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L224" t="n">
         <v>19.96</v>
@@ -11703,7 +11725,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>-27.27272727272722</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L225" t="n">
         <v>19.94</v>
@@ -11754,7 +11776,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>-27.27272727272722</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L226" t="n">
         <v>19.93</v>
@@ -11805,7 +11827,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>-27.27272727272722</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L227" t="n">
         <v>19.92</v>
@@ -11856,7 +11878,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>-20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>19.91</v>
@@ -11907,7 +11929,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>-20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>19.91</v>
@@ -11958,7 +11980,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L230" t="n">
         <v>19.89</v>
@@ -12009,7 +12031,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>-23.07692307692299</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>19.87</v>
@@ -12060,7 +12082,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>19.88</v>
@@ -12111,7 +12133,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>-7.692307692307776</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L233" t="n">
         <v>19.88</v>
@@ -12162,7 +12184,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>-16.66666666666686</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>19.87</v>
@@ -12213,7 +12235,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>-16.66666666666686</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>19.87</v>
@@ -12264,7 +12286,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>-16.66666666666662</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L236" t="n">
         <v>19.86</v>
@@ -12315,7 +12337,7 @@
         <v>14.1</v>
       </c>
       <c r="K237" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>19.86</v>
@@ -12366,7 +12388,7 @@
         <v>14.3</v>
       </c>
       <c r="K238" t="n">
-        <v>-20.0000000000001</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L238" t="n">
         <v>19.84</v>
@@ -12417,7 +12439,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>-6.66666666666654</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L239" t="n">
         <v>19.83</v>
@@ -12468,7 +12490,7 @@
         <v>14.50000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>-12.49999999999997</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L240" t="n">
         <v>19.83</v>
@@ -12519,7 +12541,7 @@
         <v>14.50000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>-20.0000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>19.82</v>
@@ -12570,7 +12592,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>19.82</v>
@@ -12672,7 +12694,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>19.82</v>
@@ -12723,7 +12745,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L245" t="n">
         <v>19.82</v>
@@ -12825,7 +12847,7 @@
         <v>14.8</v>
       </c>
       <c r="K247" t="n">
-        <v>-7.692307692307566</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L247" t="n">
         <v>19.82</v>
@@ -12876,7 +12898,7 @@
         <v>14.8</v>
       </c>
       <c r="K248" t="n">
-        <v>-7.692307692307566</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>19.83</v>
@@ -12927,7 +12949,7 @@
         <v>14.9</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L249" t="n">
         <v>19.84</v>
@@ -12978,7 +13000,7 @@
         <v>15</v>
       </c>
       <c r="K250" t="n">
-        <v>7.69230769230786</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L250" t="n">
         <v>19.85</v>
@@ -13029,7 +13051,7 @@
         <v>15.1</v>
       </c>
       <c r="K251" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>19.87</v>
@@ -13080,7 +13102,7 @@
         <v>15.2</v>
       </c>
       <c r="K252" t="n">
-        <v>-7.692307692307608</v>
+        <v>-20</v>
       </c>
       <c r="L252" t="n">
         <v>19.86000000000001</v>
@@ -13182,7 +13204,7 @@
         <v>15.4</v>
       </c>
       <c r="K254" t="n">
-        <v>6.666666666666825</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L254" t="n">
         <v>19.87</v>
@@ -13233,7 +13255,7 @@
         <v>15.4</v>
       </c>
       <c r="K255" t="n">
-        <v>6.666666666666825</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L255" t="n">
         <v>19.88</v>
@@ -13284,7 +13306,7 @@
         <v>15.4</v>
       </c>
       <c r="K256" t="n">
-        <v>14.28571428571436</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L256" t="n">
         <v>19.89</v>
@@ -13335,7 +13357,7 @@
         <v>15.4</v>
       </c>
       <c r="K257" t="n">
-        <v>7.69230769230786</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L257" t="n">
         <v>19.91</v>
@@ -13386,7 +13408,7 @@
         <v>15.4</v>
       </c>
       <c r="K258" t="n">
-        <v>27.27272727272756</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L258" t="n">
         <v>19.93</v>
@@ -13437,7 +13459,7 @@
         <v>15.4</v>
       </c>
       <c r="K259" t="n">
-        <v>20.00000000000014</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L259" t="n">
         <v>19.94</v>
@@ -13488,7 +13510,7 @@
         <v>15.4</v>
       </c>
       <c r="K260" t="n">
-        <v>33.33333333333386</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L260" t="n">
         <v>19.96</v>
@@ -13539,7 +13561,7 @@
         <v>15.4</v>
       </c>
       <c r="K261" t="n">
-        <v>33.33333333333386</v>
+        <v>100</v>
       </c>
       <c r="L261" t="n">
         <v>19.97</v>
@@ -13590,7 +13612,7 @@
         <v>15.4</v>
       </c>
       <c r="K262" t="n">
-        <v>14.28571428571472</v>
+        <v>100</v>
       </c>
       <c r="L262" t="n">
         <v>19.99</v>
@@ -13641,7 +13663,7 @@
         <v>15.5</v>
       </c>
       <c r="K263" t="n">
-        <v>25.00000000000067</v>
+        <v>100</v>
       </c>
       <c r="L263" t="n">
         <v>20.01</v>
@@ -13692,7 +13714,7 @@
         <v>15.6</v>
       </c>
       <c r="K264" t="n">
-        <v>11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>20.01</v>
@@ -13743,7 +13765,7 @@
         <v>15.6</v>
       </c>
       <c r="K265" t="n">
-        <v>11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>20.01</v>
@@ -13794,7 +13816,7 @@
         <v>15.6</v>
       </c>
       <c r="K266" t="n">
-        <v>11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>20.01</v>
@@ -13845,7 +13867,7 @@
         <v>15.8</v>
       </c>
       <c r="K267" t="n">
-        <v>40.00000000000014</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L267" t="n">
         <v>20.02999999999999</v>
@@ -13896,7 +13918,7 @@
         <v>15.8</v>
       </c>
       <c r="K268" t="n">
-        <v>40.00000000000014</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L268" t="n">
         <v>20.04999999999999</v>
@@ -13947,7 +13969,7 @@
         <v>15.9</v>
       </c>
       <c r="K269" t="n">
-        <v>40.00000000000036</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L269" t="n">
         <v>20.07999999999999</v>
@@ -13998,7 +14020,7 @@
         <v>16.1</v>
       </c>
       <c r="K270" t="n">
-        <v>63.63636363636369</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L270" t="n">
         <v>20.13</v>
@@ -14049,7 +14071,7 @@
         <v>16.1</v>
       </c>
       <c r="K271" t="n">
-        <v>60.00000000000014</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L271" t="n">
         <v>20.18</v>
@@ -14100,7 +14122,7 @@
         <v>16.1</v>
       </c>
       <c r="K272" t="n">
-        <v>77.77777777777752</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L272" t="n">
         <v>20.23</v>
@@ -14151,7 +14173,7 @@
         <v>16.1</v>
       </c>
       <c r="K273" t="n">
-        <v>74.99999999999977</v>
+        <v>100</v>
       </c>
       <c r="L273" t="n">
         <v>20.27</v>
@@ -14202,7 +14224,7 @@
         <v>16.2</v>
       </c>
       <c r="K274" t="n">
-        <v>49.99999999999956</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L274" t="n">
         <v>20.31</v>
@@ -14253,7 +14275,7 @@
         <v>16.2</v>
       </c>
       <c r="K275" t="n">
-        <v>49.99999999999956</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L275" t="n">
         <v>20.35</v>
@@ -14304,7 +14326,7 @@
         <v>16.3</v>
       </c>
       <c r="K276" t="n">
-        <v>55.5555555555552</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L276" t="n">
         <v>20.4</v>
@@ -14355,7 +14377,7 @@
         <v>16.6</v>
       </c>
       <c r="K277" t="n">
-        <v>66.66666666666637</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L277" t="n">
         <v>20.46</v>
@@ -14406,7 +14428,7 @@
         <v>16.7</v>
       </c>
       <c r="K278" t="n">
-        <v>69.2307692307689</v>
+        <v>74.99999999999967</v>
       </c>
       <c r="L278" t="n">
         <v>20.53</v>
@@ -14508,7 +14530,7 @@
         <v>16.9</v>
       </c>
       <c r="K280" t="n">
-        <v>73.33333333333309</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L280" t="n">
         <v>20.66</v>
@@ -14559,7 +14581,7 @@
         <v>17</v>
       </c>
       <c r="K281" t="n">
-        <v>74.99999999999972</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L281" t="n">
         <v>20.73</v>
@@ -14610,7 +14632,7 @@
         <v>17</v>
       </c>
       <c r="K282" t="n">
-        <v>74.99999999999972</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L282" t="n">
         <v>20.8</v>
@@ -14661,7 +14683,7 @@
         <v>17.1</v>
       </c>
       <c r="K283" t="n">
-        <v>62.49999999999994</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L283" t="n">
         <v>20.86</v>
@@ -14712,7 +14734,7 @@
         <v>17.3</v>
       </c>
       <c r="K284" t="n">
-        <v>52.94117647058806</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L284" t="n">
         <v>20.91</v>
@@ -14763,7 +14785,7 @@
         <v>17.4</v>
       </c>
       <c r="K285" t="n">
-        <v>44.44444444444446</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L285" t="n">
         <v>20.95</v>
@@ -14814,7 +14836,7 @@
         <v>17.4</v>
       </c>
       <c r="K286" t="n">
-        <v>44.44444444444446</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>20.98</v>
@@ -14865,7 +14887,7 @@
         <v>17.6</v>
       </c>
       <c r="K287" t="n">
-        <v>44.44444444444446</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L287" t="n">
         <v>21</v>
@@ -14916,7 +14938,7 @@
         <v>17.6</v>
       </c>
       <c r="K288" t="n">
-        <v>44.44444444444446</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>21.01</v>
@@ -14967,7 +14989,7 @@
         <v>17.6</v>
       </c>
       <c r="K289" t="n">
-        <v>41.17647058823527</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L289" t="n">
         <v>21.01</v>
@@ -15018,7 +15040,7 @@
         <v>17.7</v>
       </c>
       <c r="K290" t="n">
-        <v>37.50000000000006</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L290" t="n">
         <v>21.01</v>
@@ -15069,7 +15091,7 @@
         <v>17.9</v>
       </c>
       <c r="K291" t="n">
-        <v>44.44444444444446</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L291" t="n">
         <v>21.02</v>
@@ -15120,7 +15142,7 @@
         <v>18</v>
       </c>
       <c r="K292" t="n">
-        <v>47.36842105263154</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L292" t="n">
         <v>21.04</v>
@@ -15171,7 +15193,7 @@
         <v>18</v>
       </c>
       <c r="K293" t="n">
-        <v>47.36842105263154</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L293" t="n">
         <v>21.07</v>
@@ -15222,7 +15244,7 @@
         <v>18.09999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>47.36842105263182</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L294" t="n">
         <v>21.11</v>
@@ -15273,7 +15295,7 @@
         <v>18.4</v>
       </c>
       <c r="K295" t="n">
-        <v>27.27272727272739</v>
+        <v>20</v>
       </c>
       <c r="L295" t="n">
         <v>21.13</v>
@@ -15324,7 +15346,7 @@
         <v>18.5</v>
       </c>
       <c r="K296" t="n">
-        <v>27.27272727272739</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L296" t="n">
         <v>21.16</v>
@@ -15375,7 +15397,7 @@
         <v>18.7</v>
       </c>
       <c r="K297" t="n">
-        <v>4.761904761904665</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L297" t="n">
         <v>21.15</v>
@@ -15426,7 +15448,7 @@
         <v>18.9</v>
       </c>
       <c r="K298" t="n">
-        <v>9.090909090909207</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L298" t="n">
         <v>21.16</v>
@@ -15477,7 +15499,7 @@
         <v>19.1</v>
       </c>
       <c r="K299" t="n">
-        <v>13.04347826086959</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L299" t="n">
         <v>21.19</v>
@@ -15528,7 +15550,7 @@
         <v>19.3</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L300" t="n">
         <v>21.19</v>
@@ -15579,7 +15601,7 @@
         <v>19.5</v>
       </c>
       <c r="K301" t="n">
-        <v>4.000000000000057</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L301" t="n">
         <v>21.19</v>
@@ -15630,7 +15652,7 @@
         <v>19.6</v>
       </c>
       <c r="K302" t="n">
-        <v>7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>21.19</v>
@@ -15681,7 +15703,7 @@
         <v>19.8</v>
       </c>
       <c r="K303" t="n">
-        <v>18.5185185185185</v>
+        <v>17.64705882352939</v>
       </c>
       <c r="L303" t="n">
         <v>21.21</v>
@@ -15732,7 +15754,7 @@
         <v>20</v>
       </c>
       <c r="K304" t="n">
-        <v>33.33333333333342</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L304" t="n">
         <v>21.26</v>
@@ -15783,7 +15805,7 @@
         <v>20.4</v>
       </c>
       <c r="K305" t="n">
-        <v>46.66666666666661</v>
+        <v>57.89473684210509</v>
       </c>
       <c r="L305" t="n">
         <v>21.38</v>
@@ -15834,7 +15856,7 @@
         <v>20.8</v>
       </c>
       <c r="K306" t="n">
-        <v>29.41176470588237</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L306" t="n">
         <v>21.45</v>
@@ -15885,7 +15907,7 @@
         <v>20.9</v>
       </c>
       <c r="K307" t="n">
-        <v>21.21212121212119</v>
+        <v>29.99999999999995</v>
       </c>
       <c r="L307" t="n">
         <v>21.53</v>
@@ -15936,7 +15958,7 @@
         <v>21.1</v>
       </c>
       <c r="K308" t="n">
-        <v>25.71428571428567</v>
+        <v>29.99999999999995</v>
       </c>
       <c r="L308" t="n">
         <v>21.61</v>
@@ -15987,7 +16009,7 @@
         <v>21.2</v>
       </c>
       <c r="K309" t="n">
-        <v>22.22222222222225</v>
+        <v>36.84210526315795</v>
       </c>
       <c r="L309" t="n">
         <v>21.66</v>
@@ -16038,7 +16060,7 @@
         <v>21.4</v>
       </c>
       <c r="K310" t="n">
-        <v>13.51351351351353</v>
+        <v>15.78947368421061</v>
       </c>
       <c r="L310" t="n">
         <v>21.71</v>
@@ -16089,7 +16111,7 @@
         <v>21.4</v>
       </c>
       <c r="K311" t="n">
-        <v>8.571428571428601</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L311" t="n">
         <v>21.74</v>
@@ -16140,7 +16162,7 @@
         <v>21.4</v>
       </c>
       <c r="K312" t="n">
-        <v>5.882352941176556</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>21.76</v>
@@ -16191,7 +16213,7 @@
         <v>21.49999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>8.571428571428601</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L313" t="n">
         <v>21.77</v>
@@ -16242,7 +16264,7 @@
         <v>21.69999999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>5.555555555555539</v>
+        <v>-53.84615384615405</v>
       </c>
       <c r="L314" t="n">
         <v>21.73999999999999</v>
@@ -16293,7 +16315,7 @@
         <v>21.79999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>11.7647058823529</v>
+        <v>-40.00000000000036</v>
       </c>
       <c r="L315" t="n">
         <v>21.66</v>
@@ -16344,7 +16366,7 @@
         <v>22</v>
       </c>
       <c r="K316" t="n">
-        <v>14.28571428571428</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L316" t="n">
         <v>21.63999999999999</v>
@@ -16395,7 +16417,7 @@
         <v>22</v>
       </c>
       <c r="K317" t="n">
-        <v>21.21212121212131</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L317" t="n">
         <v>21.63</v>
@@ -16446,7 +16468,7 @@
         <v>22</v>
       </c>
       <c r="K318" t="n">
-        <v>16.12903225806455</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L318" t="n">
         <v>21.59999999999999</v>
@@ -16497,7 +16519,7 @@
         <v>22.1</v>
       </c>
       <c r="K319" t="n">
-        <v>6.666666666666651</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L319" t="n">
         <v>21.56999999999999</v>
@@ -16548,7 +16570,7 @@
         <v>22.3</v>
       </c>
       <c r="K320" t="n">
-        <v>19.99999999999995</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L320" t="n">
         <v>21.57999999999999</v>
@@ -16599,7 +16621,7 @@
         <v>22.3</v>
       </c>
       <c r="K321" t="n">
-        <v>14.28571428571425</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L321" t="n">
         <v>21.58999999999999</v>
@@ -16650,7 +16672,7 @@
         <v>22.3</v>
       </c>
       <c r="K322" t="n">
-        <v>11.11111111111114</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>21.59999999999999</v>
@@ -16701,7 +16723,7 @@
         <v>22.4</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L323" t="n">
         <v>21.58999999999999</v>
@@ -16752,7 +16774,7 @@
         <v>22.5</v>
       </c>
       <c r="K324" t="n">
-        <v>-12.00000000000005</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L324" t="n">
         <v>21.58999999999999</v>
@@ -16803,7 +16825,7 @@
         <v>22.6</v>
       </c>
       <c r="K325" t="n">
-        <v>-27.27272727272718</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>21.60999999999999</v>
@@ -16854,7 +16876,7 @@
         <v>22.8</v>
       </c>
       <c r="K326" t="n">
-        <v>-20.00000000000007</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L326" t="n">
         <v>21.58999999999999</v>
@@ -16905,7 +16927,7 @@
         <v>22.8</v>
       </c>
       <c r="K327" t="n">
-        <v>-15.78947368421055</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L327" t="n">
         <v>21.56999999999999</v>
@@ -16956,7 +16978,7 @@
         <v>22.8</v>
       </c>
       <c r="K328" t="n">
-        <v>-29.41176470588231</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L328" t="n">
         <v>21.54999999999999</v>
@@ -17007,7 +17029,7 @@
         <v>22.8</v>
       </c>
       <c r="K329" t="n">
-        <v>-25.00000000000006</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L329" t="n">
         <v>21.54</v>
@@ -17058,7 +17080,7 @@
         <v>22.9</v>
       </c>
       <c r="K330" t="n">
-        <v>-6.66666666666673</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L330" t="n">
         <v>21.52</v>
@@ -17109,7 +17131,7 @@
         <v>23.2</v>
       </c>
       <c r="K331" t="n">
-        <v>-22.22222222222224</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L331" t="n">
         <v>21.47</v>
@@ -17160,7 +17182,7 @@
         <v>23.4</v>
       </c>
       <c r="K332" t="n">
-        <v>-10.00000000000011</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L332" t="n">
         <v>21.44</v>
@@ -17262,7 +17284,7 @@
         <v>23.6</v>
       </c>
       <c r="K334" t="n">
-        <v>-5.263157894736901</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L334" t="n">
         <v>21.4</v>
@@ -17313,7 +17335,7 @@
         <v>23.7</v>
       </c>
       <c r="K335" t="n">
-        <v>-5.263157894736723</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L335" t="n">
         <v>21.37</v>
@@ -17364,7 +17386,7 @@
         <v>23.7</v>
       </c>
       <c r="K336" t="n">
-        <v>-17.64705882352946</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L336" t="n">
         <v>21.36</v>
@@ -17415,7 +17437,7 @@
         <v>23.8</v>
       </c>
       <c r="K337" t="n">
-        <v>-22.22222222222233</v>
+        <v>-20</v>
       </c>
       <c r="L337" t="n">
         <v>21.34</v>
@@ -17466,7 +17488,7 @@
         <v>23.9</v>
       </c>
       <c r="K338" t="n">
-        <v>-15.78947368421055</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L338" t="n">
         <v>21.33</v>
@@ -17517,7 +17539,7 @@
         <v>23.9</v>
       </c>
       <c r="K339" t="n">
-        <v>-11.11111111111107</v>
+        <v>-20</v>
       </c>
       <c r="L339" t="n">
         <v>21.32</v>
@@ -17568,7 +17590,7 @@
         <v>24.2</v>
       </c>
       <c r="K340" t="n">
-        <v>-36.84210526315781</v>
+        <v>-20</v>
       </c>
       <c r="L340" t="n">
         <v>21.27</v>
@@ -17619,7 +17641,7 @@
         <v>24.3</v>
       </c>
       <c r="K341" t="n">
-        <v>-29.99999999999984</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L341" t="n">
         <v>21.26</v>
@@ -17670,7 +17692,7 @@
         <v>24.3</v>
       </c>
       <c r="K342" t="n">
-        <v>-29.99999999999984</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L342" t="n">
         <v>21.23</v>
@@ -17721,7 +17743,7 @@
         <v>24.4</v>
       </c>
       <c r="K343" t="n">
-        <v>-20.00000000000007</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L343" t="n">
         <v>21.22</v>
@@ -17772,7 +17794,7 @@
         <v>24.5</v>
       </c>
       <c r="K344" t="n">
-        <v>-9.999999999999947</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>21.21</v>
@@ -17823,7 +17845,7 @@
         <v>24.5</v>
       </c>
       <c r="K345" t="n">
-        <v>-15.78947368421055</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>21.21</v>
@@ -17874,7 +17896,7 @@
         <v>24.6</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L346" t="n">
         <v>21.22</v>
@@ -17925,7 +17947,7 @@
         <v>24.7</v>
       </c>
       <c r="K347" t="n">
-        <v>-5.263157894736744</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>21.23</v>
@@ -17976,7 +17998,7 @@
         <v>24.7</v>
       </c>
       <c r="K348" t="n">
-        <v>-5.263157894736744</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>21.23</v>
@@ -18027,7 +18049,7 @@
         <v>24.7</v>
       </c>
       <c r="K349" t="n">
-        <v>-5.263157894736744</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L349" t="n">
         <v>21.23</v>
@@ -18078,7 +18100,7 @@
         <v>24.7</v>
       </c>
       <c r="K350" t="n">
-        <v>-11.11111111111111</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L350" t="n">
         <v>21.26</v>
@@ -18129,7 +18151,7 @@
         <v>24.7</v>
       </c>
       <c r="K351" t="n">
-        <v>6.666666666666793</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L351" t="n">
         <v>21.28</v>
@@ -18180,7 +18202,7 @@
         <v>24.7</v>
       </c>
       <c r="K352" t="n">
-        <v>-7.692307692307566</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L352" t="n">
         <v>21.3</v>
@@ -18282,7 +18304,7 @@
         <v>24.7</v>
       </c>
       <c r="K354" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L354" t="n">
         <v>21.31000000000001</v>
@@ -18333,7 +18355,7 @@
         <v>24.7</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L355" t="n">
         <v>21.31000000000001</v>
@@ -18384,7 +18406,7 @@
         <v>24.9</v>
       </c>
       <c r="K356" t="n">
-        <v>-16.66666666666662</v>
+        <v>-100</v>
       </c>
       <c r="L356" t="n">
         <v>21.28000000000001</v>
@@ -18435,7 +18457,7 @@
         <v>24.9</v>
       </c>
       <c r="K357" t="n">
-        <v>-9.090909090908914</v>
+        <v>-100</v>
       </c>
       <c r="L357" t="n">
         <v>21.26000000000001</v>
@@ -18486,7 +18508,7 @@
         <v>24.9</v>
       </c>
       <c r="K358" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L358" t="n">
         <v>21.24</v>
@@ -18537,7 +18559,7 @@
         <v>24.9</v>
       </c>
       <c r="K359" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L359" t="n">
         <v>21.22</v>
@@ -18588,7 +18610,7 @@
         <v>24.9</v>
       </c>
       <c r="K360" t="n">
-        <v>14.28571428571458</v>
+        <v>-100</v>
       </c>
       <c r="L360" t="n">
         <v>21.2</v>
@@ -18639,7 +18661,7 @@
         <v>24.99999999999999</v>
       </c>
       <c r="K361" t="n">
-        <v>14.28571428571414</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L361" t="n">
         <v>21.19</v>
@@ -18690,7 +18712,7 @@
         <v>25.09999999999999</v>
       </c>
       <c r="K362" t="n">
-        <v>25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>21.19</v>
@@ -18741,7 +18763,7 @@
         <v>25.09999999999999</v>
       </c>
       <c r="K363" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>21.19</v>
@@ -18792,7 +18814,7 @@
         <v>25.2</v>
       </c>
       <c r="K364" t="n">
-        <v>-14.28571428571458</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L364" t="n">
         <v>21.18</v>
@@ -18843,7 +18865,7 @@
         <v>25.2</v>
       </c>
       <c r="K365" t="n">
-        <v>-14.28571428571458</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L365" t="n">
         <v>21.16999999999999</v>
@@ -18894,7 +18916,7 @@
         <v>25.3</v>
       </c>
       <c r="K366" t="n">
-        <v>-14.285714285714</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L366" t="n">
         <v>21.18999999999999</v>
@@ -18945,7 +18967,7 @@
         <v>25.3</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L367" t="n">
         <v>21.21</v>
@@ -18996,7 +19018,7 @@
         <v>25.3</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L368" t="n">
         <v>21.23</v>
@@ -19047,7 +19069,7 @@
         <v>25.3</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L369" t="n">
         <v>21.25</v>
@@ -19098,7 +19120,7 @@
         <v>25.4</v>
       </c>
       <c r="K370" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>21.26</v>
@@ -19200,7 +19222,7 @@
         <v>25.6</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.1111111111112</v>
+        <v>-20</v>
       </c>
       <c r="L372" t="n">
         <v>21.26</v>
@@ -19251,7 +19273,7 @@
         <v>25.7</v>
       </c>
       <c r="K373" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L373" t="n">
         <v>21.26</v>
@@ -19302,7 +19324,7 @@
         <v>25.8</v>
       </c>
       <c r="K374" t="n">
-        <v>9.090909090908857</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L374" t="n">
         <v>21.28</v>
@@ -19353,7 +19375,7 @@
         <v>25.8</v>
       </c>
       <c r="K375" t="n">
-        <v>9.090909090908857</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L375" t="n">
         <v>21.3</v>
@@ -19404,7 +19426,7 @@
         <v>25.8</v>
       </c>
       <c r="K376" t="n">
-        <v>33.33333333333281</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L376" t="n">
         <v>21.31</v>
@@ -19455,7 +19477,7 @@
         <v>25.8</v>
       </c>
       <c r="K377" t="n">
-        <v>33.33333333333281</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L377" t="n">
         <v>21.32</v>
@@ -19506,7 +19528,7 @@
         <v>25.8</v>
       </c>
       <c r="K378" t="n">
-        <v>33.33333333333281</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L378" t="n">
         <v>21.33</v>
@@ -19557,7 +19579,7 @@
         <v>25.8</v>
       </c>
       <c r="K379" t="n">
-        <v>33.33333333333281</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L379" t="n">
         <v>21.34</v>
@@ -19608,7 +19630,7 @@
         <v>25.9</v>
       </c>
       <c r="K380" t="n">
-        <v>39.99999999999957</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L380" t="n">
         <v>21.37</v>
@@ -19659,7 +19681,7 @@
         <v>25.9</v>
       </c>
       <c r="K381" t="n">
-        <v>33.33333333333307</v>
+        <v>100</v>
       </c>
       <c r="L381" t="n">
         <v>21.39</v>
@@ -19710,7 +19732,7 @@
         <v>25.9</v>
       </c>
       <c r="K382" t="n">
-        <v>24.99999999999967</v>
+        <v>100</v>
       </c>
       <c r="L382" t="n">
         <v>21.42</v>
@@ -19761,7 +19783,7 @@
         <v>26</v>
       </c>
       <c r="K383" t="n">
-        <v>33.33333333333307</v>
+        <v>100</v>
       </c>
       <c r="L383" t="n">
         <v>21.45</v>
@@ -19812,7 +19834,7 @@
         <v>26.1</v>
       </c>
       <c r="K384" t="n">
-        <v>33.33333333333307</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L384" t="n">
         <v>21.46</v>
@@ -19863,7 +19885,7 @@
         <v>26.1</v>
       </c>
       <c r="K385" t="n">
-        <v>33.33333333333307</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L385" t="n">
         <v>21.47</v>
@@ -19914,7 +19936,7 @@
         <v>26.3</v>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L386" t="n">
         <v>21.46</v>
@@ -19965,7 +19987,7 @@
         <v>26.4</v>
       </c>
       <c r="K387" t="n">
-        <v>9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>21.46</v>
@@ -20016,7 +20038,7 @@
         <v>26.4</v>
       </c>
       <c r="K388" t="n">
-        <v>9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>21.46</v>
@@ -20067,7 +20089,7 @@
         <v>26.4</v>
       </c>
       <c r="K389" t="n">
-        <v>9.090909090908857</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L389" t="n">
         <v>21.46</v>
@@ -20118,7 +20140,7 @@
         <v>26.5</v>
       </c>
       <c r="K390" t="n">
-        <v>9.090909090909207</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L390" t="n">
         <v>21.44</v>
@@ -20169,7 +20191,7 @@
         <v>26.5</v>
       </c>
       <c r="K391" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L391" t="n">
         <v>21.42</v>
@@ -20220,7 +20242,7 @@
         <v>26.6</v>
       </c>
       <c r="K392" t="n">
-        <v>20</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L392" t="n">
         <v>21.41</v>
@@ -20271,7 +20293,7 @@
         <v>26.7</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L393" t="n">
         <v>21.38</v>
@@ -20322,7 +20344,7 @@
         <v>26.8</v>
       </c>
       <c r="K394" t="n">
-        <v>-20</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L394" t="n">
         <v>21.35</v>
@@ -20373,7 +20395,7 @@
         <v>26.9</v>
       </c>
       <c r="K395" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>21.33000000000001</v>
@@ -20424,7 +20446,7 @@
         <v>26.9</v>
       </c>
       <c r="K396" t="n">
-        <v>-9.090909090908914</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L396" t="n">
         <v>21.33000000000001</v>
@@ -20475,7 +20497,7 @@
         <v>26.9</v>
       </c>
       <c r="K397" t="n">
-        <v>-9.090909090908914</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L397" t="n">
         <v>21.32</v>
@@ -20526,7 +20548,7 @@
         <v>27</v>
       </c>
       <c r="K398" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L398" t="n">
         <v>21.3</v>
@@ -20577,7 +20599,7 @@
         <v>27</v>
       </c>
       <c r="K399" t="n">
-        <v>-16.66666666666662</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L399" t="n">
         <v>21.28</v>
@@ -20628,7 +20650,7 @@
         <v>27</v>
       </c>
       <c r="K400" t="n">
-        <v>-27.27272727272739</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L400" t="n">
         <v>21.27</v>
@@ -20679,7 +20701,7 @@
         <v>27</v>
       </c>
       <c r="K401" t="n">
-        <v>-27.27272727272739</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L401" t="n">
         <v>21.26</v>
@@ -20730,7 +20752,7 @@
         <v>27.1</v>
       </c>
       <c r="K402" t="n">
-        <v>-33.33333333333333</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L402" t="n">
         <v>21.23</v>
@@ -20781,7 +20803,7 @@
         <v>27.2</v>
       </c>
       <c r="K403" t="n">
-        <v>-33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>21.21999999999999</v>
@@ -20832,7 +20854,7 @@
         <v>27.2</v>
       </c>
       <c r="K404" t="n">
-        <v>-27.27272727272756</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L404" t="n">
         <v>21.21999999999999</v>
@@ -20883,7 +20905,7 @@
         <v>27.29999999999999</v>
       </c>
       <c r="K405" t="n">
-        <v>-33.33333333333353</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L405" t="n">
         <v>21.19999999999999</v>
@@ -20985,7 +21007,7 @@
         <v>27.59999999999999</v>
       </c>
       <c r="K407" t="n">
-        <v>-16.66666666666671</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>21.18999999999999</v>
@@ -21036,7 +21058,7 @@
         <v>27.59999999999999</v>
       </c>
       <c r="K408" t="n">
-        <v>-16.66666666666671</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>21.18999999999999</v>
@@ -21087,7 +21109,7 @@
         <v>27.59999999999999</v>
       </c>
       <c r="K409" t="n">
-        <v>-16.66666666666671</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>21.18999999999999</v>
@@ -21138,7 +21160,7 @@
         <v>27.69999999999999</v>
       </c>
       <c r="K410" t="n">
-        <v>-16.66666666666671</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L410" t="n">
         <v>21.17999999999999</v>
@@ -21189,7 +21211,7 @@
         <v>27.69999999999999</v>
       </c>
       <c r="K411" t="n">
-        <v>-16.66666666666671</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>21.16999999999999</v>
@@ -21240,7 +21262,7 @@
         <v>27.79999999999999</v>
       </c>
       <c r="K412" t="n">
-        <v>-16.66666666666671</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>21.17999999999999</v>
@@ -21291,7 +21313,7 @@
         <v>27.89999999999999</v>
       </c>
       <c r="K413" t="n">
-        <v>-16.66666666666671</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L413" t="n">
         <v>21.16999999999999</v>
@@ -21342,7 +21364,7 @@
         <v>27.89999999999999</v>
       </c>
       <c r="K414" t="n">
-        <v>-9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>21.15999999999999</v>
@@ -21393,7 +21415,7 @@
         <v>27.99999999999999</v>
       </c>
       <c r="K415" t="n">
-        <v>-9.090909090909326</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L415" t="n">
         <v>21.16999999999999</v>
@@ -21444,7 +21466,7 @@
         <v>27.99999999999999</v>
       </c>
       <c r="K416" t="n">
-        <v>-9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>21.15999999999999</v>
@@ -21495,7 +21517,7 @@
         <v>28.09999999999998</v>
       </c>
       <c r="K417" t="n">
-        <v>-16.66666666666682</v>
+        <v>-20</v>
       </c>
       <c r="L417" t="n">
         <v>21.14999999999999</v>
@@ -21546,7 +21568,7 @@
         <v>28.09999999999998</v>
       </c>
       <c r="K418" t="n">
-        <v>-9.090909090909033</v>
+        <v>-20</v>
       </c>
       <c r="L418" t="n">
         <v>21.13999999999999</v>
@@ -21597,7 +21619,7 @@
         <v>28.09999999999998</v>
       </c>
       <c r="K419" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L419" t="n">
         <v>21.12999999999999</v>
@@ -21648,7 +21670,7 @@
         <v>28.09999999999998</v>
       </c>
       <c r="K420" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>21.12999999999999</v>
@@ -21699,7 +21721,7 @@
         <v>28.09999999999998</v>
       </c>
       <c r="K421" t="n">
-        <v>-9.090909090909033</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L421" t="n">
         <v>21.12999999999999</v>
@@ -21750,7 +21772,7 @@
         <v>28.19999999999999</v>
       </c>
       <c r="K422" t="n">
-        <v>-9.090909090909326</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L422" t="n">
         <v>21.10999999999999</v>
@@ -21801,7 +21823,7 @@
         <v>28.19999999999999</v>
       </c>
       <c r="K423" t="n">
-        <v>-20.00000000000014</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L423" t="n">
         <v>21.09999999999999</v>
@@ -21852,7 +21874,7 @@
         <v>28.19999999999999</v>
       </c>
       <c r="K424" t="n">
-        <v>-20.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L424" t="n">
         <v>21.08999999999999</v>
@@ -21903,7 +21925,7 @@
         <v>28.29999999999999</v>
       </c>
       <c r="K425" t="n">
-        <v>-20.00000000000043</v>
+        <v>-100</v>
       </c>
       <c r="L425" t="n">
         <v>21.06</v>
@@ -21954,7 +21976,7 @@
         <v>28.49999999999999</v>
       </c>
       <c r="K426" t="n">
-        <v>-60.00000000000056</v>
+        <v>-100</v>
       </c>
       <c r="L426" t="n">
         <v>21.00999999999999</v>
@@ -22005,7 +22027,7 @@
         <v>28.59999999999998</v>
       </c>
       <c r="K427" t="n">
-        <v>-60.00000000000043</v>
+        <v>-100</v>
       </c>
       <c r="L427" t="n">
         <v>20.95999999999999</v>
@@ -22056,7 +22078,7 @@
         <v>28.69999999999998</v>
       </c>
       <c r="K428" t="n">
-        <v>-45.45454545454598</v>
+        <v>-66.66666666666727</v>
       </c>
       <c r="L428" t="n">
         <v>20.91999999999999</v>
@@ -22107,7 +22129,7 @@
         <v>28.79999999999998</v>
       </c>
       <c r="K429" t="n">
-        <v>-33.33333333333353</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L429" t="n">
         <v>20.88999999999999</v>
@@ -22158,7 +22180,7 @@
         <v>28.79999999999998</v>
       </c>
       <c r="K430" t="n">
-        <v>-27.27272727272756</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L430" t="n">
         <v>20.86</v>
@@ -22209,7 +22231,7 @@
         <v>28.79999999999998</v>
       </c>
       <c r="K431" t="n">
-        <v>-27.27272727272756</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L431" t="n">
         <v>20.83</v>
@@ -22260,7 +22282,7 @@
         <v>28.89999999999998</v>
       </c>
       <c r="K432" t="n">
-        <v>-45.45454545454569</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L432" t="n">
         <v>20.8</v>
@@ -22311,7 +22333,7 @@
         <v>29.09999999999998</v>
       </c>
       <c r="K433" t="n">
-        <v>-16.66666666666696</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L433" t="n">
         <v>20.79</v>
@@ -22362,7 +22384,7 @@
         <v>29.19999999999998</v>
       </c>
       <c r="K434" t="n">
-        <v>-23.07692307692324</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L434" t="n">
         <v>20.77</v>
@@ -22413,7 +22435,7 @@
         <v>29.19999999999998</v>
       </c>
       <c r="K435" t="n">
-        <v>-33.33333333333333</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L435" t="n">
         <v>20.76</v>
@@ -22464,7 +22486,7 @@
         <v>29.19999999999998</v>
       </c>
       <c r="K436" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L436" t="n">
         <v>20.77</v>
@@ -22515,7 +22537,7 @@
         <v>29.29999999999998</v>
       </c>
       <c r="K437" t="n">
-        <v>-16.66666666666696</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L437" t="n">
         <v>20.8</v>
@@ -22566,7 +22588,7 @@
         <v>29.49999999999998</v>
       </c>
       <c r="K438" t="n">
-        <v>-28.57142857142883</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L438" t="n">
         <v>20.8</v>
@@ -22617,7 +22639,7 @@
         <v>29.69999999999998</v>
       </c>
       <c r="K439" t="n">
-        <v>-12.50000000000022</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L439" t="n">
         <v>20.81</v>
@@ -22668,7 +22690,7 @@
         <v>29.69999999999998</v>
       </c>
       <c r="K440" t="n">
-        <v>-12.50000000000022</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L440" t="n">
         <v>20.82</v>
@@ -22719,7 +22741,7 @@
         <v>29.69999999999998</v>
       </c>
       <c r="K441" t="n">
-        <v>-12.50000000000022</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L441" t="n">
         <v>20.83</v>
@@ -22770,7 +22792,7 @@
         <v>29.89999999999998</v>
       </c>
       <c r="K442" t="n">
-        <v>5.882352941176569</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L442" t="n">
         <v>20.87</v>
@@ -22821,7 +22843,7 @@
         <v>29.89999999999998</v>
       </c>
       <c r="K443" t="n">
-        <v>5.882352941176569</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L443" t="n">
         <v>20.89</v>
@@ -22872,7 +22894,7 @@
         <v>30.09999999999998</v>
       </c>
       <c r="K444" t="n">
-        <v>-5.263157894736921</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L444" t="n">
         <v>20.9</v>
@@ -22923,7 +22945,7 @@
         <v>30.09999999999998</v>
       </c>
       <c r="K445" t="n">
-        <v>0</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L445" t="n">
         <v>20.91</v>
@@ -22974,7 +22996,7 @@
         <v>30.09999999999998</v>
       </c>
       <c r="K446" t="n">
-        <v>12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>20.92</v>
@@ -23025,7 +23047,7 @@
         <v>30.19999999999999</v>
       </c>
       <c r="K447" t="n">
-        <v>24.99999999999989</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L447" t="n">
         <v>20.93</v>
@@ -23076,7 +23098,7 @@
         <v>30.39999999999998</v>
       </c>
       <c r="K448" t="n">
-        <v>5.882352941176544</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L448" t="n">
         <v>20.94</v>
@@ -23127,7 +23149,7 @@
         <v>30.39999999999998</v>
       </c>
       <c r="K449" t="n">
-        <v>0</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L449" t="n">
         <v>20.93</v>
@@ -23178,7 +23200,7 @@
         <v>30.49999999999998</v>
       </c>
       <c r="K450" t="n">
-        <v>5.882352941176348</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>20.93</v>
@@ -23229,7 +23251,7 @@
         <v>30.49999999999998</v>
       </c>
       <c r="K451" t="n">
-        <v>5.882352941176348</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L451" t="n">
         <v>20.93</v>
@@ -23280,7 +23302,7 @@
         <v>30.59999999999998</v>
       </c>
       <c r="K452" t="n">
-        <v>5.882352941176569</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L452" t="n">
         <v>20.9</v>
@@ -23331,7 +23353,7 @@
         <v>30.59999999999998</v>
       </c>
       <c r="K453" t="n">
-        <v>-6.66666666666654</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L453" t="n">
         <v>20.87</v>
@@ -23382,7 +23404,7 @@
         <v>30.69999999999998</v>
       </c>
       <c r="K454" t="n">
-        <v>-6.666666666666761</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L454" t="n">
         <v>20.85</v>
@@ -23433,7 +23455,7 @@
         <v>30.79999999999998</v>
       </c>
       <c r="K455" t="n">
-        <v>-12.49999999999997</v>
+        <v>-42.85714285714271</v>
       </c>
       <c r="L455" t="n">
         <v>20.82</v>
@@ -23484,7 +23506,7 @@
         <v>31.09999999999998</v>
       </c>
       <c r="K456" t="n">
-        <v>5.263157894736744</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L456" t="n">
         <v>20.82</v>
@@ -23535,7 +23557,7 @@
         <v>31.09999999999998</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L457" t="n">
         <v>20.81</v>
@@ -23586,7 +23608,7 @@
         <v>31.09999999999998</v>
       </c>
       <c r="K458" t="n">
-        <v>12.49999999999997</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L458" t="n">
         <v>20.82</v>
@@ -23739,7 +23761,7 @@
         <v>31.19999999999997</v>
       </c>
       <c r="K461" t="n">
-        <v>-6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>20.82</v>
@@ -23790,7 +23812,7 @@
         <v>31.19999999999997</v>
       </c>
       <c r="K462" t="n">
-        <v>-23.07692307692324</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>20.82</v>
@@ -23841,7 +23863,7 @@
         <v>31.19999999999997</v>
       </c>
       <c r="K463" t="n">
-        <v>-23.07692307692324</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L463" t="n">
         <v>20.82</v>
@@ -23892,7 +23914,7 @@
         <v>31.19999999999997</v>
       </c>
       <c r="K464" t="n">
-        <v>-9.090909090908973</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L464" t="n">
         <v>20.83000000000001</v>
@@ -24045,7 +24067,7 @@
         <v>31.39999999999997</v>
       </c>
       <c r="K467" t="n">
-        <v>-16.66666666666682</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L467" t="n">
         <v>20.85</v>
@@ -24096,7 +24118,7 @@
         <v>31.39999999999997</v>
       </c>
       <c r="K468" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L468" t="n">
         <v>20.84000000000001</v>
@@ -24147,7 +24169,7 @@
         <v>31.39999999999997</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L469" t="n">
         <v>20.83000000000001</v>
@@ -24198,7 +24220,7 @@
         <v>31.49999999999997</v>
       </c>
       <c r="K470" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L470" t="n">
         <v>20.83000000000001</v>
@@ -24249,7 +24271,7 @@
         <v>31.59999999999997</v>
       </c>
       <c r="K471" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>20.83000000000001</v>
@@ -24351,7 +24373,7 @@
         <v>31.69999999999996</v>
       </c>
       <c r="K473" t="n">
-        <v>9.090909090909033</v>
+        <v>20</v>
       </c>
       <c r="L473" t="n">
         <v>20.84000000000001</v>
@@ -24402,7 +24424,7 @@
         <v>31.69999999999996</v>
       </c>
       <c r="K474" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>20.85</v>
@@ -24453,7 +24475,7 @@
         <v>31.79999999999996</v>
       </c>
       <c r="K475" t="n">
-        <v>20.00000000000028</v>
+        <v>-20</v>
       </c>
       <c r="L475" t="n">
         <v>20.84000000000001</v>
@@ -24504,7 +24526,7 @@
         <v>31.89999999999996</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L476" t="n">
         <v>20.84000000000001</v>
@@ -24555,7 +24577,7 @@
         <v>31.99999999999996</v>
       </c>
       <c r="K477" t="n">
-        <v>11.11111111111146</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L477" t="n">
         <v>20.86000000000001</v>
@@ -24606,7 +24628,7 @@
         <v>31.99999999999996</v>
       </c>
       <c r="K478" t="n">
-        <v>11.11111111111146</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L478" t="n">
         <v>20.88</v>
@@ -24657,7 +24679,7 @@
         <v>32.09999999999997</v>
       </c>
       <c r="K479" t="n">
-        <v>20.0000000000005</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L479" t="n">
         <v>20.91</v>
@@ -24708,7 +24730,7 @@
         <v>32.29999999999997</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L480" t="n">
         <v>20.91</v>
@@ -24759,7 +24781,7 @@
         <v>32.49999999999997</v>
       </c>
       <c r="K481" t="n">
-        <v>23.07692307692318</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L481" t="n">
         <v>20.94</v>
@@ -24810,7 +24832,7 @@
         <v>32.49999999999997</v>
       </c>
       <c r="K482" t="n">
-        <v>23.07692307692318</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L482" t="n">
         <v>20.97</v>
@@ -24861,7 +24883,7 @@
         <v>32.49999999999997</v>
       </c>
       <c r="K483" t="n">
-        <v>23.07692307692318</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L483" t="n">
         <v>20.99</v>
@@ -24912,7 +24934,7 @@
         <v>32.69999999999997</v>
       </c>
       <c r="K484" t="n">
-        <v>6.666666666666525</v>
+        <v>11.11111111111072</v>
       </c>
       <c r="L484" t="n">
         <v>20.99</v>
@@ -24963,7 +24985,7 @@
         <v>32.79999999999998</v>
       </c>
       <c r="K485" t="n">
-        <v>6.666666666666746</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L485" t="n">
         <v>21.01</v>
@@ -25014,7 +25036,7 @@
         <v>32.79999999999998</v>
       </c>
       <c r="K486" t="n">
-        <v>6.666666666666746</v>
+        <v>0</v>
       </c>
       <c r="L486" t="n">
         <v>21.02</v>
@@ -25065,7 +25087,7 @@
         <v>32.89999999999998</v>
       </c>
       <c r="K487" t="n">
-        <v>19.99999999999995</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L487" t="n">
         <v>21.02999999999999</v>
@@ -25116,7 +25138,7 @@
         <v>32.99999999999998</v>
       </c>
       <c r="K488" t="n">
-        <v>12.49999999999989</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L488" t="n">
         <v>21.02999999999999</v>
@@ -25167,7 +25189,7 @@
         <v>33.09999999999998</v>
       </c>
       <c r="K489" t="n">
-        <v>17.64705882352935</v>
+        <v>25</v>
       </c>
       <c r="L489" t="n">
         <v>21.02999999999999</v>
@@ -25218,7 +25240,7 @@
         <v>33.19999999999998</v>
       </c>
       <c r="K490" t="n">
-        <v>5.882352941176507</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L490" t="n">
         <v>21.04</v>
@@ -25269,7 +25291,7 @@
         <v>33.29999999999998</v>
       </c>
       <c r="K491" t="n">
-        <v>17.64705882352928</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>21.04</v>
@@ -25320,7 +25342,7 @@
         <v>33.39999999999998</v>
       </c>
       <c r="K492" t="n">
-        <v>11.11111111111096</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L492" t="n">
         <v>21.02999999999999</v>
@@ -25371,7 +25393,7 @@
         <v>33.59999999999998</v>
       </c>
       <c r="K493" t="n">
-        <v>15.78947368421043</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L493" t="n">
         <v>21.04</v>
@@ -25422,7 +25444,7 @@
         <v>33.59999999999998</v>
       </c>
       <c r="K494" t="n">
-        <v>15.78947368421043</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L494" t="n">
         <v>21.06999999999999</v>
@@ -25473,7 +25495,7 @@
         <v>33.79999999999998</v>
       </c>
       <c r="K495" t="n">
-        <v>9.999999999999858</v>
+        <v>0</v>
       </c>
       <c r="L495" t="n">
         <v>21.06999999999999</v>
@@ -25524,7 +25546,7 @@
         <v>33.79999999999998</v>
       </c>
       <c r="K496" t="n">
-        <v>5.263157894736852</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L496" t="n">
         <v>21.06999999999999</v>
@@ -25575,7 +25597,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K497" t="n">
-        <v>5.263157894736852</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L497" t="n">
         <v>21.06999999999999</v>
@@ -25626,7 +25648,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K498" t="n">
-        <v>5.263157894736852</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>21.07999999999999</v>
@@ -25677,7 +25699,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K499" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L499" t="n">
         <v>21.07999999999999</v>
@@ -25728,7 +25750,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K500" t="n">
-        <v>12.50000000000006</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>21.08999999999999</v>
@@ -25779,7 +25801,7 @@
         <v>33.99999999999999</v>
       </c>
       <c r="K501" t="n">
-        <v>6.666666666666461</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L501" t="n">
         <v>21.09999999999999</v>
@@ -25830,7 +25852,7 @@
         <v>33.99999999999999</v>
       </c>
       <c r="K502" t="n">
-        <v>6.666666666666461</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>21.11999999999999</v>
@@ -25881,7 +25903,7 @@
         <v>34.09999999999998</v>
       </c>
       <c r="K503" t="n">
-        <v>0</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L503" t="n">
         <v>21.10999999999999</v>
@@ -25932,7 +25954,7 @@
         <v>34.09999999999998</v>
       </c>
       <c r="K504" t="n">
-        <v>14.28571428571443</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L504" t="n">
         <v>21.09999999999999</v>
@@ -25983,7 +26005,7 @@
         <v>34.09999999999998</v>
       </c>
       <c r="K505" t="n">
-        <v>7.692307692307776</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L505" t="n">
         <v>21.10999999999999</v>
@@ -26034,7 +26056,7 @@
         <v>34.09999999999998</v>
       </c>
       <c r="K506" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>21.11999999999999</v>
@@ -26136,7 +26158,7 @@
         <v>34.29999999999998</v>
       </c>
       <c r="K508" t="n">
-        <v>23.07692307692306</v>
+        <v>50</v>
       </c>
       <c r="L508" t="n">
         <v>21.13999999999999</v>
@@ -26187,7 +26209,7 @@
         <v>34.39999999999998</v>
       </c>
       <c r="K509" t="n">
-        <v>23.07692307692291</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L509" t="n">
         <v>21.16999999999999</v>
@@ -26238,7 +26260,7 @@
         <v>34.49999999999997</v>
       </c>
       <c r="K510" t="n">
-        <v>23.07692307692331</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L510" t="n">
         <v>21.18999999999999</v>
@@ -26289,7 +26311,7 @@
         <v>34.59999999999997</v>
       </c>
       <c r="K511" t="n">
-        <v>7.692307692307587</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>21.18999999999999</v>
@@ -26340,7 +26362,7 @@
         <v>34.59999999999997</v>
       </c>
       <c r="K512" t="n">
-        <v>16.66666666666677</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L512" t="n">
         <v>21.18999999999999</v>
@@ -26391,7 +26413,7 @@
         <v>34.69999999999997</v>
       </c>
       <c r="K513" t="n">
-        <v>-9.090909090908944</v>
+        <v>0</v>
       </c>
       <c r="L513" t="n">
         <v>21.18999999999999</v>
@@ -26442,7 +26464,7 @@
         <v>34.79999999999998</v>
       </c>
       <c r="K514" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L514" t="n">
         <v>21.18</v>
@@ -26493,7 +26515,7 @@
         <v>34.89999999999998</v>
       </c>
       <c r="K515" t="n">
-        <v>9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L515" t="n">
         <v>21.18</v>
@@ -26544,7 +26566,7 @@
         <v>35.09999999999998</v>
       </c>
       <c r="K516" t="n">
-        <v>23.07692307692318</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L516" t="n">
         <v>21.2</v>
@@ -26595,7 +26617,7 @@
         <v>35.19999999999998</v>
       </c>
       <c r="K517" t="n">
-        <v>7.692307692307546</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L517" t="n">
         <v>21.21</v>
@@ -26646,7 +26668,7 @@
         <v>35.29999999999998</v>
       </c>
       <c r="K518" t="n">
-        <v>14.28571428571425</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L518" t="n">
         <v>21.21</v>
@@ -26697,7 +26719,7 @@
         <v>35.29999999999998</v>
       </c>
       <c r="K519" t="n">
-        <v>14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
         <v>21.2</v>
@@ -26748,7 +26770,7 @@
         <v>35.39999999999998</v>
       </c>
       <c r="K520" t="n">
-        <v>19.9999999999999</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L520" t="n">
         <v>21.21</v>
@@ -26799,7 +26821,7 @@
         <v>35.39999999999998</v>
       </c>
       <c r="K521" t="n">
-        <v>14.28571428571432</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L521" t="n">
         <v>21.23</v>
@@ -26850,7 +26872,7 @@
         <v>35.49999999999997</v>
       </c>
       <c r="K522" t="n">
-        <v>6.666666666666825</v>
+        <v>25</v>
       </c>
       <c r="L522" t="n">
         <v>21.24</v>
@@ -26901,7 +26923,7 @@
         <v>35.59999999999997</v>
       </c>
       <c r="K523" t="n">
-        <v>20</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L523" t="n">
         <v>21.27</v>
@@ -26952,7 +26974,7 @@
         <v>35.69999999999997</v>
       </c>
       <c r="K524" t="n">
-        <v>25.00000000000011</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L524" t="n">
         <v>21.32</v>
@@ -27003,7 +27025,7 @@
         <v>35.69999999999997</v>
       </c>
       <c r="K525" t="n">
-        <v>25.00000000000011</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L525" t="n">
         <v>21.36</v>
@@ -27054,7 +27076,7 @@
         <v>35.89999999999996</v>
       </c>
       <c r="K526" t="n">
-        <v>11.11111111111118</v>
+        <v>14.28571428571487</v>
       </c>
       <c r="L526" t="n">
         <v>21.36</v>
@@ -27105,7 +27127,7 @@
         <v>35.99999999999996</v>
       </c>
       <c r="K527" t="n">
-        <v>15.78947368421056</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L527" t="n">
         <v>21.38</v>
@@ -27156,7 +27178,7 @@
         <v>35.99999999999996</v>
       </c>
       <c r="K528" t="n">
-        <v>5.882352941176434</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L528" t="n">
         <v>21.39</v>
@@ -27258,7 +27280,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K530" t="n">
-        <v>0</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L530" t="n">
         <v>21.39</v>
@@ -27309,7 +27331,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K531" t="n">
-        <v>6.666666666666857</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
         <v>21.38</v>
@@ -27360,7 +27382,7 @@
         <v>36.19999999999995</v>
       </c>
       <c r="K532" t="n">
-        <v>12.50000000000017</v>
+        <v>0</v>
       </c>
       <c r="L532" t="n">
         <v>21.39</v>
@@ -27411,7 +27433,7 @@
         <v>36.19999999999995</v>
       </c>
       <c r="K533" t="n">
-        <v>20.00000000000019</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L533" t="n">
         <v>21.39</v>
@@ -27462,7 +27484,7 @@
         <v>36.49999999999994</v>
       </c>
       <c r="K534" t="n">
-        <v>5.882352941176667</v>
+        <v>-50.00000000000134</v>
       </c>
       <c r="L534" t="n">
         <v>21.35</v>
@@ -27513,7 +27535,7 @@
         <v>36.59999999999994</v>
       </c>
       <c r="K535" t="n">
-        <v>-5.882352941176667</v>
+        <v>-42.85714285714409</v>
       </c>
       <c r="L535" t="n">
         <v>21.3</v>
@@ -27564,7 +27586,7 @@
         <v>36.89999999999995</v>
       </c>
       <c r="K536" t="n">
-        <v>0</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L536" t="n">
         <v>21.3</v>
@@ -27615,7 +27637,7 @@
         <v>36.89999999999995</v>
       </c>
       <c r="K537" t="n">
-        <v>5.882352941176667</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L537" t="n">
         <v>21.29</v>
@@ -27666,7 +27688,7 @@
         <v>36.89999999999995</v>
       </c>
       <c r="K538" t="n">
-        <v>0</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L538" t="n">
         <v>21.28</v>
@@ -27717,7 +27739,7 @@
         <v>37.09999999999995</v>
       </c>
       <c r="K539" t="n">
-        <v>-11.11111111111127</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L539" t="n">
         <v>21.25</v>
@@ -27768,7 +27790,7 @@
         <v>37.19999999999995</v>
       </c>
       <c r="K540" t="n">
-        <v>-22.22222222222244</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L540" t="n">
         <v>21.22</v>
@@ -27819,7 +27841,7 @@
         <v>37.29999999999995</v>
       </c>
       <c r="K541" t="n">
-        <v>-15.78947368421056</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L541" t="n">
         <v>21.2</v>
@@ -27870,7 +27892,7 @@
         <v>37.39999999999995</v>
       </c>
       <c r="K542" t="n">
-        <v>-5.26315789473698</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L542" t="n">
         <v>21.18</v>
@@ -27921,7 +27943,7 @@
         <v>37.49999999999994</v>
       </c>
       <c r="K543" t="n">
-        <v>-15.78947368421056</v>
+        <v>0</v>
       </c>
       <c r="L543" t="n">
         <v>21.15</v>
@@ -27972,7 +27994,7 @@
         <v>37.59999999999994</v>
       </c>
       <c r="K544" t="n">
-        <v>-15.78947368421081</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L544" t="n">
         <v>21.16</v>
@@ -28023,7 +28045,7 @@
         <v>37.69999999999994</v>
       </c>
       <c r="K545" t="n">
-        <v>-10.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L545" t="n">
         <v>21.19</v>
@@ -28074,7 +28096,7 @@
         <v>37.79999999999994</v>
       </c>
       <c r="K546" t="n">
-        <v>-5.26315789473698</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L546" t="n">
         <v>21.18</v>
@@ -28125,7 +28147,7 @@
         <v>37.89999999999994</v>
       </c>
       <c r="K547" t="n">
-        <v>-5.263157894736773</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>21.18</v>
@@ -28176,7 +28198,7 @@
         <v>38.09999999999994</v>
       </c>
       <c r="K548" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L548" t="n">
         <v>21.15999999999999</v>
@@ -28227,7 +28249,7 @@
         <v>38.09999999999994</v>
       </c>
       <c r="K549" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L549" t="n">
         <v>21.15999999999999</v>
@@ -28278,7 +28300,7 @@
         <v>38.09999999999994</v>
       </c>
       <c r="K550" t="n">
-        <v>-10.00000000000004</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>21.16999999999999</v>
@@ -28329,7 +28351,7 @@
         <v>38.09999999999994</v>
       </c>
       <c r="K551" t="n">
-        <v>-10.00000000000004</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L551" t="n">
         <v>21.16999999999999</v>
@@ -28380,7 +28402,7 @@
         <v>38.09999999999994</v>
       </c>
       <c r="K552" t="n">
-        <v>-15.78947368421045</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>21.15999999999999</v>
@@ -28431,7 +28453,7 @@
         <v>38.19999999999994</v>
       </c>
       <c r="K553" t="n">
-        <v>-20</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L553" t="n">
         <v>21.15</v>
@@ -28482,7 +28504,7 @@
         <v>38.19999999999994</v>
       </c>
       <c r="K554" t="n">
-        <v>-5.882352941176569</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L554" t="n">
         <v>21.13</v>
@@ -28533,7 +28555,7 @@
         <v>38.29999999999994</v>
       </c>
       <c r="K555" t="n">
-        <v>5.882352941176569</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L555" t="n">
         <v>21.10999999999999</v>
@@ -28584,7 +28606,7 @@
         <v>38.29999999999994</v>
       </c>
       <c r="K556" t="n">
-        <v>-14.28571428571432</v>
+        <v>-50</v>
       </c>
       <c r="L556" t="n">
         <v>21.09999999999999</v>
@@ -28635,7 +28657,7 @@
         <v>38.39999999999993</v>
       </c>
       <c r="K557" t="n">
-        <v>-6.666666666666825</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L557" t="n">
         <v>21.08999999999999</v>
@@ -28686,7 +28708,7 @@
         <v>38.39999999999993</v>
       </c>
       <c r="K558" t="n">
-        <v>-6.666666666666825</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L558" t="n">
         <v>21.09999999999999</v>
@@ -28788,7 +28810,7 @@
         <v>38.59999999999993</v>
       </c>
       <c r="K560" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L560" t="n">
         <v>21.08999999999999</v>
@@ -28839,7 +28861,7 @@
         <v>38.59999999999993</v>
       </c>
       <c r="K561" t="n">
-        <v>-7.692307692307944</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L561" t="n">
         <v>21.07999999999999</v>
@@ -28890,7 +28912,7 @@
         <v>38.59999999999993</v>
       </c>
       <c r="K562" t="n">
-        <v>-16.66666666666686</v>
+        <v>0</v>
       </c>
       <c r="L562" t="n">
         <v>21.06999999999999</v>
@@ -28941,7 +28963,7 @@
         <v>38.59999999999993</v>
       </c>
       <c r="K563" t="n">
-        <v>-9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L563" t="n">
         <v>21.06999999999999</v>
@@ -28992,7 +29014,7 @@
         <v>38.79999999999993</v>
       </c>
       <c r="K564" t="n">
-        <v>0</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L564" t="n">
         <v>21.08999999999999</v>
@@ -29043,7 +29065,7 @@
         <v>38.79999999999993</v>
       </c>
       <c r="K565" t="n">
-        <v>-9.090909090909326</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L565" t="n">
         <v>21.09999999999999</v>
@@ -29145,7 +29167,7 @@
         <v>38.99999999999993</v>
       </c>
       <c r="K567" t="n">
-        <v>-27.27272727272765</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L567" t="n">
         <v>21.08999999999999</v>
@@ -29196,7 +29218,7 @@
         <v>39.19999999999993</v>
       </c>
       <c r="K568" t="n">
-        <v>9.090909090908944</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L568" t="n">
         <v>21.08999999999999</v>
@@ -29247,7 +29269,7 @@
         <v>39.29999999999993</v>
       </c>
       <c r="K569" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L569" t="n">
         <v>21.10999999999999</v>
@@ -29298,7 +29320,7 @@
         <v>39.39999999999993</v>
       </c>
       <c r="K570" t="n">
-        <v>7.692307692307546</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L570" t="n">
         <v>21.12999999999999</v>
@@ -29349,7 +29371,7 @@
         <v>39.49999999999994</v>
       </c>
       <c r="K571" t="n">
-        <v>14.28571428571425</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L571" t="n">
         <v>21.15999999999999</v>
@@ -29400,7 +29422,7 @@
         <v>39.59999999999994</v>
       </c>
       <c r="K572" t="n">
-        <v>19.99999999999981</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L572" t="n">
         <v>21.2</v>
@@ -29451,7 +29473,7 @@
         <v>39.59999999999994</v>
       </c>
       <c r="K573" t="n">
-        <v>28.5714285714285</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L573" t="n">
         <v>21.23999999999999</v>
@@ -29502,7 +29524,7 @@
         <v>39.79999999999994</v>
       </c>
       <c r="K574" t="n">
-        <v>12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L574" t="n">
         <v>21.23999999999999</v>
@@ -29553,7 +29575,7 @@
         <v>39.79999999999994</v>
       </c>
       <c r="K575" t="n">
-        <v>6.666666666666525</v>
+        <v>0</v>
       </c>
       <c r="L575" t="n">
         <v>21.23999999999999</v>
@@ -29604,7 +29626,7 @@
         <v>39.79999999999994</v>
       </c>
       <c r="K576" t="n">
-        <v>6.666666666666525</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L576" t="n">
         <v>21.23999999999999</v>
@@ -29706,7 +29728,7 @@
         <v>39.89999999999994</v>
       </c>
       <c r="K578" t="n">
-        <v>6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L578" t="n">
         <v>21.27</v>
@@ -29757,7 +29779,7 @@
         <v>39.99999999999994</v>
       </c>
       <c r="K579" t="n">
-        <v>6.666666666666461</v>
+        <v>0</v>
       </c>
       <c r="L579" t="n">
         <v>21.25999999999999</v>
@@ -29808,7 +29830,7 @@
         <v>39.99999999999994</v>
       </c>
       <c r="K580" t="n">
-        <v>14.28571428571411</v>
+        <v>-20</v>
       </c>
       <c r="L580" t="n">
         <v>21.25999999999999</v>
@@ -29859,7 +29881,7 @@
         <v>40.09999999999994</v>
       </c>
       <c r="K581" t="n">
-        <v>19.99999999999986</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L581" t="n">
         <v>21.25999999999999</v>
@@ -29910,7 +29932,7 @@
         <v>40.09999999999994</v>
       </c>
       <c r="K582" t="n">
-        <v>19.99999999999986</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L582" t="n">
         <v>21.24999999999999</v>
@@ -29961,7 +29983,7 @@
         <v>40.09999999999994</v>
       </c>
       <c r="K583" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L583" t="n">
         <v>21.23999999999999</v>
@@ -30012,7 +30034,7 @@
         <v>40.19999999999995</v>
       </c>
       <c r="K584" t="n">
-        <v>14.28571428571403</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L584" t="n">
         <v>21.26</v>
@@ -30063,7 +30085,7 @@
         <v>40.29999999999995</v>
       </c>
       <c r="K585" t="n">
-        <v>19.99999999999976</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L585" t="n">
         <v>21.29</v>
@@ -30114,7 +30136,7 @@
         <v>40.39999999999995</v>
       </c>
       <c r="K586" t="n">
-        <v>12.49999999999978</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L586" t="n">
         <v>21.31</v>
@@ -30165,7 +30187,7 @@
         <v>40.39999999999995</v>
       </c>
       <c r="K587" t="n">
-        <v>28.57142857142806</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L587" t="n">
         <v>21.33</v>
@@ -30216,7 +30238,7 @@
         <v>40.49999999999994</v>
       </c>
       <c r="K588" t="n">
-        <v>7.692307692307734</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L588" t="n">
         <v>21.33</v>
@@ -30267,7 +30289,7 @@
         <v>40.59999999999994</v>
       </c>
       <c r="K589" t="n">
-        <v>7.692307692307502</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L589" t="n">
         <v>21.35</v>
@@ -30318,7 +30340,7 @@
         <v>40.59999999999994</v>
       </c>
       <c r="K590" t="n">
-        <v>16.66666666666657</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L590" t="n">
         <v>21.37</v>
@@ -30369,7 +30391,7 @@
         <v>40.59999999999994</v>
       </c>
       <c r="K591" t="n">
-        <v>9.090909090908886</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L591" t="n">
         <v>21.38</v>
@@ -30420,7 +30442,7 @@
         <v>40.69999999999994</v>
       </c>
       <c r="K592" t="n">
-        <v>9.090909090909207</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L592" t="n">
         <v>21.4</v>
@@ -30471,7 +30493,7 @@
         <v>40.69999999999994</v>
       </c>
       <c r="K593" t="n">
-        <v>9.090909090909207</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L593" t="n">
         <v>21.42</v>
@@ -30522,7 +30544,7 @@
         <v>40.89999999999993</v>
       </c>
       <c r="K594" t="n">
-        <v>45.45454545454569</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L594" t="n">
         <v>21.45</v>
@@ -30573,7 +30595,7 @@
         <v>40.89999999999993</v>
       </c>
       <c r="K595" t="n">
-        <v>45.45454545454569</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L595" t="n">
         <v>21.47</v>
@@ -30624,7 +30646,7 @@
         <v>41.09999999999994</v>
       </c>
       <c r="K596" t="n">
-        <v>23.07692307692318</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L596" t="n">
         <v>21.48</v>
@@ -30675,7 +30697,7 @@
         <v>41.09999999999994</v>
       </c>
       <c r="K597" t="n">
-        <v>23.07692307692318</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L597" t="n">
         <v>21.49</v>
@@ -30726,7 +30748,7 @@
         <v>41.19999999999994</v>
       </c>
       <c r="K598" t="n">
-        <v>7.692307692307546</v>
+        <v>0</v>
       </c>
       <c r="L598" t="n">
         <v>21.5</v>
@@ -30777,7 +30799,7 @@
         <v>41.19999999999994</v>
       </c>
       <c r="K599" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L599" t="n">
         <v>21.5</v>
@@ -30828,7 +30850,7 @@
         <v>41.29999999999994</v>
       </c>
       <c r="K600" t="n">
-        <v>7.692307692307819</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L600" t="n">
         <v>21.49</v>
@@ -30879,7 +30901,7 @@
         <v>41.39999999999993</v>
       </c>
       <c r="K601" t="n">
-        <v>7.692307692307587</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L601" t="n">
         <v>21.49</v>
@@ -30930,7 +30952,7 @@
         <v>41.39999999999993</v>
       </c>
       <c r="K602" t="n">
-        <v>7.692307692307587</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L602" t="n">
         <v>21.48</v>
@@ -30981,7 +31003,7 @@
         <v>41.49999999999994</v>
       </c>
       <c r="K603" t="n">
-        <v>14.28571428571432</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L603" t="n">
         <v>21.48</v>
@@ -31032,7 +31054,7 @@
         <v>41.49999999999994</v>
       </c>
       <c r="K604" t="n">
-        <v>7.69230769230786</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L604" t="n">
         <v>21.46</v>
@@ -31134,7 +31156,7 @@
         <v>41.59999999999994</v>
       </c>
       <c r="K606" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L606" t="n">
         <v>21.43</v>
@@ -31236,7 +31258,7 @@
         <v>41.69999999999993</v>
       </c>
       <c r="K608" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L608" t="n">
         <v>21.41</v>
@@ -31287,7 +31309,7 @@
         <v>41.69999999999993</v>
       </c>
       <c r="K609" t="n">
-        <v>-9.090909090908944</v>
+        <v>0</v>
       </c>
       <c r="L609" t="n">
         <v>21.4</v>
@@ -31389,7 +31411,7 @@
         <v>41.89999999999992</v>
       </c>
       <c r="K611" t="n">
-        <v>-7.692307692307629</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L611" t="n">
         <v>21.4</v>
@@ -31440,7 +31462,7 @@
         <v>41.89999999999992</v>
       </c>
       <c r="K612" t="n">
-        <v>-16.66666666666686</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L612" t="n">
         <v>21.39</v>
@@ -31491,7 +31513,7 @@
         <v>41.89999999999992</v>
       </c>
       <c r="K613" t="n">
-        <v>-16.66666666666686</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L613" t="n">
         <v>21.37</v>
@@ -31542,7 +31564,7 @@
         <v>41.89999999999992</v>
       </c>
       <c r="K614" t="n">
-        <v>-40.00000000000043</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L614" t="n">
         <v>21.35</v>
@@ -31593,7 +31615,7 @@
         <v>41.99999999999992</v>
       </c>
       <c r="K615" t="n">
-        <v>-45.45454545454598</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L615" t="n">
         <v>21.32</v>
@@ -31644,7 +31666,7 @@
         <v>42.09999999999992</v>
       </c>
       <c r="K616" t="n">
-        <v>-40.00000000000043</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L616" t="n">
         <v>21.29</v>
@@ -31695,7 +31717,7 @@
         <v>42.19999999999992</v>
       </c>
       <c r="K617" t="n">
-        <v>-27.27272727272783</v>
+        <v>-20.00000000000085</v>
       </c>
       <c r="L617" t="n">
         <v>21.27</v>
@@ -31746,7 +31768,7 @@
         <v>42.19999999999992</v>
       </c>
       <c r="K618" t="n">
-        <v>-20.00000000000036</v>
+        <v>-20.00000000000085</v>
       </c>
       <c r="L618" t="n">
         <v>21.26</v>
@@ -31797,7 +31819,7 @@
         <v>42.29999999999992</v>
       </c>
       <c r="K619" t="n">
-        <v>-9.090909090909062</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L619" t="n">
         <v>21.26</v>
@@ -31848,7 +31870,7 @@
         <v>42.39999999999992</v>
       </c>
       <c r="K620" t="n">
-        <v>-9.090909090909385</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L620" t="n">
         <v>21.24</v>
@@ -31899,7 +31921,7 @@
         <v>42.49999999999992</v>
       </c>
       <c r="K621" t="n">
-        <v>-9.090909090909003</v>
+        <v>0</v>
       </c>
       <c r="L621" t="n">
         <v>21.24</v>
@@ -31950,7 +31972,7 @@
         <v>42.49999999999992</v>
       </c>
       <c r="K622" t="n">
-        <v>-9.090909090909003</v>
+        <v>0</v>
       </c>
       <c r="L622" t="n">
         <v>21.24</v>
@@ -32001,7 +32023,7 @@
         <v>42.49999999999992</v>
       </c>
       <c r="K623" t="n">
-        <v>-20.00000000000021</v>
+        <v>0</v>
       </c>
       <c r="L623" t="n">
         <v>21.24</v>
@@ -32052,7 +32074,7 @@
         <v>42.59999999999992</v>
       </c>
       <c r="K624" t="n">
-        <v>-27.27272727272765</v>
+        <v>0</v>
       </c>
       <c r="L624" t="n">
         <v>21.23</v>
@@ -32103,7 +32125,7 @@
         <v>42.69999999999992</v>
       </c>
       <c r="K625" t="n">
-        <v>-33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L625" t="n">
         <v>21.22</v>
@@ -32154,7 +32176,7 @@
         <v>42.69999999999992</v>
       </c>
       <c r="K626" t="n">
-        <v>-27.27272727272751</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L626" t="n">
         <v>21.22</v>
@@ -32205,7 +32227,7 @@
         <v>42.69999999999992</v>
       </c>
       <c r="K627" t="n">
-        <v>-27.27272727272751</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L627" t="n">
         <v>21.21</v>
@@ -32256,7 +32278,7 @@
         <v>42.79999999999992</v>
       </c>
       <c r="K628" t="n">
-        <v>-27.27272727272765</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L628" t="n">
         <v>21.19</v>
@@ -32307,7 +32329,7 @@
         <v>42.79999999999992</v>
       </c>
       <c r="K629" t="n">
-        <v>-27.27272727272765</v>
+        <v>-50</v>
       </c>
       <c r="L629" t="n">
         <v>21.16</v>
@@ -32358,7 +32380,7 @@
         <v>42.89999999999992</v>
       </c>
       <c r="K630" t="n">
-        <v>-45.45454545454569</v>
+        <v>-100.0000000000009</v>
       </c>
       <c r="L630" t="n">
         <v>21.13</v>
@@ -32409,7 +32431,7 @@
         <v>42.89999999999992</v>
       </c>
       <c r="K631" t="n">
-        <v>-40.00000000000021</v>
+        <v>-100.0000000000009</v>
       </c>
       <c r="L631" t="n">
         <v>21.09</v>
@@ -32460,7 +32482,7 @@
         <v>42.89999999999992</v>
       </c>
       <c r="K632" t="n">
-        <v>-40.00000000000021</v>
+        <v>-100.0000000000009</v>
       </c>
       <c r="L632" t="n">
         <v>21.05</v>
@@ -32511,7 +32533,7 @@
         <v>42.89999999999992</v>
       </c>
       <c r="K633" t="n">
-        <v>-40.00000000000021</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L633" t="n">
         <v>21.01</v>
@@ -32562,7 +32584,7 @@
         <v>42.89999999999992</v>
       </c>
       <c r="K634" t="n">
-        <v>-40.00000000000021</v>
+        <v>-100</v>
       </c>
       <c r="L634" t="n">
         <v>20.98</v>
@@ -32613,7 +32635,7 @@
         <v>43.09999999999992</v>
       </c>
       <c r="K635" t="n">
-        <v>-9.090909090908886</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
         <v>20.98</v>
@@ -32715,7 +32737,7 @@
         <v>43.19999999999992</v>
       </c>
       <c r="K637" t="n">
-        <v>-19.99999999999979</v>
+        <v>0</v>
       </c>
       <c r="L637" t="n">
         <v>20.97</v>
@@ -32766,7 +32788,7 @@
         <v>43.29999999999993</v>
       </c>
       <c r="K638" t="n">
-        <v>-9.090909090908825</v>
+        <v>20</v>
       </c>
       <c r="L638" t="n">
         <v>20.98</v>
@@ -32817,7 +32839,7 @@
         <v>43.39999999999993</v>
       </c>
       <c r="K639" t="n">
-        <v>-27.27272727272713</v>
+        <v>20</v>
       </c>
       <c r="L639" t="n">
         <v>20.98</v>
@@ -32868,7 +32890,7 @@
         <v>43.39999999999993</v>
       </c>
       <c r="K640" t="n">
-        <v>-19.99999999999979</v>
+        <v>20</v>
       </c>
       <c r="L640" t="n">
         <v>20.99</v>
@@ -32919,7 +32941,7 @@
         <v>43.49999999999993</v>
       </c>
       <c r="K641" t="n">
-        <v>-39.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L641" t="n">
         <v>20.99</v>
@@ -32970,7 +32992,7 @@
         <v>43.59999999999993</v>
       </c>
       <c r="K642" t="n">
-        <v>-27.27272727272713</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L642" t="n">
         <v>21</v>
@@ -33021,7 +33043,7 @@
         <v>43.69999999999993</v>
       </c>
       <c r="K643" t="n">
-        <v>-33.33333333333324</v>
+        <v>0</v>
       </c>
       <c r="L643" t="n">
         <v>21</v>
@@ -33072,7 +33094,7 @@
         <v>43.79999999999993</v>
       </c>
       <c r="K644" t="n">
-        <v>-16.66666666666647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L644" t="n">
         <v>21.01</v>
@@ -33123,7 +33145,7 @@
         <v>43.89999999999993</v>
       </c>
       <c r="K645" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L645" t="n">
         <v>20.99</v>
@@ -33174,7 +33196,7 @@
         <v>43.99999999999994</v>
       </c>
       <c r="K646" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L646" t="n">
         <v>20.98</v>
@@ -33225,7 +33247,7 @@
         <v>43.99999999999994</v>
       </c>
       <c r="K647" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L647" t="n">
         <v>20.98</v>
@@ -33327,7 +33349,7 @@
         <v>44.09999999999994</v>
       </c>
       <c r="K649" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L649" t="n">
         <v>20.98</v>
@@ -33378,7 +33400,7 @@
         <v>44.09999999999994</v>
       </c>
       <c r="K650" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L650" t="n">
         <v>20.99</v>
@@ -33429,7 +33451,7 @@
         <v>44.19999999999993</v>
       </c>
       <c r="K651" t="n">
-        <v>23.07692307692293</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L651" t="n">
         <v>21.02</v>
@@ -33480,7 +33502,7 @@
         <v>44.19999999999993</v>
       </c>
       <c r="K652" t="n">
-        <v>23.07692307692293</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L652" t="n">
         <v>21.04</v>
@@ -33531,7 +33553,7 @@
         <v>44.19999999999993</v>
       </c>
       <c r="K653" t="n">
-        <v>23.07692307692293</v>
+        <v>50</v>
       </c>
       <c r="L653" t="n">
         <v>21.06999999999999</v>
@@ -33582,7 +33604,7 @@
         <v>44.39999999999993</v>
       </c>
       <c r="K654" t="n">
-        <v>6.666666666666698</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L654" t="n">
         <v>21.06999999999999</v>
@@ -33633,7 +33655,7 @@
         <v>44.39999999999993</v>
       </c>
       <c r="K655" t="n">
-        <v>-7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L655" t="n">
         <v>21.07999999999999</v>
@@ -33684,7 +33706,7 @@
         <v>44.59999999999994</v>
       </c>
       <c r="K656" t="n">
-        <v>6.666666666666461</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L656" t="n">
         <v>21.09999999999999</v>
@@ -33735,7 +33757,7 @@
         <v>44.59999999999994</v>
       </c>
       <c r="K657" t="n">
-        <v>14.28571428571411</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L657" t="n">
         <v>21.11999999999999</v>
@@ -33837,7 +33859,7 @@
         <v>44.69999999999993</v>
       </c>
       <c r="K659" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L659" t="n">
         <v>21.12999999999999</v>
@@ -33888,7 +33910,7 @@
         <v>44.79999999999993</v>
       </c>
       <c r="K660" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L660" t="n">
         <v>21.11999999999999</v>
@@ -33939,7 +33961,7 @@
         <v>44.79999999999993</v>
       </c>
       <c r="K661" t="n">
-        <v>7.692307692307776</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L661" t="n">
         <v>21.09999999999999</v>
@@ -33990,7 +34012,7 @@
         <v>44.89999999999993</v>
       </c>
       <c r="K662" t="n">
-        <v>7.692307692307776</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L662" t="n">
         <v>21.08999999999999</v>
@@ -34041,7 +34063,7 @@
         <v>44.89999999999993</v>
       </c>
       <c r="K663" t="n">
-        <v>16.66666666666686</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L663" t="n">
         <v>21.07999999999999</v>
@@ -34092,7 +34114,7 @@
         <v>44.89999999999993</v>
       </c>
       <c r="K664" t="n">
-        <v>9.090909090909207</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L664" t="n">
         <v>21.08999999999999</v>
@@ -34143,7 +34165,7 @@
         <v>44.99999999999994</v>
       </c>
       <c r="K665" t="n">
-        <v>9.090909090909207</v>
+        <v>-50</v>
       </c>
       <c r="L665" t="n">
         <v>21.08999999999999</v>
@@ -34194,7 +34216,7 @@
         <v>44.99999999999994</v>
       </c>
       <c r="K666" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L666" t="n">
         <v>21.06999999999999</v>
@@ -34245,7 +34267,7 @@
         <v>44.99999999999994</v>
       </c>
       <c r="K667" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L667" t="n">
         <v>21.04999999999999</v>
@@ -34296,7 +34318,7 @@
         <v>44.99999999999994</v>
       </c>
       <c r="K668" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L668" t="n">
         <v>21.04</v>
@@ -34347,7 +34369,7 @@
         <v>44.99999999999994</v>
       </c>
       <c r="K669" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L669" t="n">
         <v>21.02999999999999</v>
@@ -34398,7 +34420,7 @@
         <v>44.99999999999994</v>
       </c>
       <c r="K670" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L670" t="n">
         <v>21.02999999999999</v>
@@ -34449,7 +34471,7 @@
         <v>44.99999999999994</v>
       </c>
       <c r="K671" t="n">
-        <v>-24.99999999999978</v>
+        <v>-100</v>
       </c>
       <c r="L671" t="n">
         <v>21.02999999999999</v>
@@ -34500,7 +34522,7 @@
         <v>44.99999999999994</v>
       </c>
       <c r="K672" t="n">
-        <v>-24.99999999999978</v>
+        <v>-100</v>
       </c>
       <c r="L672" t="n">
         <v>21.02</v>
@@ -34551,7 +34573,7 @@
         <v>45.09999999999994</v>
       </c>
       <c r="K673" t="n">
-        <v>-33.3333333333332</v>
+        <v>-100</v>
       </c>
       <c r="L673" t="n">
         <v>21</v>
@@ -34704,7 +34726,7 @@
         <v>45.19999999999994</v>
       </c>
       <c r="K676" t="n">
-        <v>-33.33333333333314</v>
+        <v>0</v>
       </c>
       <c r="L676" t="n">
         <v>20.99</v>
@@ -34755,7 +34777,7 @@
         <v>45.19999999999994</v>
       </c>
       <c r="K677" t="n">
-        <v>-33.33333333333314</v>
+        <v>0</v>
       </c>
       <c r="L677" t="n">
         <v>20.99</v>
@@ -34806,7 +34828,7 @@
         <v>45.19999999999994</v>
       </c>
       <c r="K678" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L678" t="n">
         <v>20.99</v>
@@ -34857,7 +34879,7 @@
         <v>45.19999999999994</v>
       </c>
       <c r="K679" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L679" t="n">
         <v>20.99</v>
@@ -35010,7 +35032,7 @@
         <v>45.19999999999994</v>
       </c>
       <c r="K682" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L682" t="n">
         <v>20.99</v>
@@ -35061,7 +35083,7 @@
         <v>45.29999999999994</v>
       </c>
       <c r="K683" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L683" t="n">
         <v>20.99</v>
@@ -35112,7 +35134,7 @@
         <v>45.29999999999994</v>
       </c>
       <c r="K684" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L684" t="n">
         <v>20.98</v>
@@ -35163,7 +35185,7 @@
         <v>45.29999999999994</v>
       </c>
       <c r="K685" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L685" t="n">
         <v>20.97</v>
@@ -35214,7 +35236,7 @@
         <v>45.29999999999994</v>
       </c>
       <c r="K686" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L686" t="n">
         <v>20.96</v>
@@ -35265,7 +35287,7 @@
         <v>45.39999999999993</v>
       </c>
       <c r="K687" t="n">
-        <v>-50</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L687" t="n">
         <v>20.94</v>
@@ -35316,7 +35338,7 @@
         <v>45.39999999999993</v>
       </c>
       <c r="K688" t="n">
-        <v>-50</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L688" t="n">
         <v>20.92</v>
@@ -35367,7 +35389,7 @@
         <v>45.49999999999993</v>
       </c>
       <c r="K689" t="n">
-        <v>-20.00000000000057</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L689" t="n">
         <v>20.91</v>
@@ -35418,7 +35440,7 @@
         <v>45.49999999999993</v>
       </c>
       <c r="K690" t="n">
-        <v>-20.00000000000057</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L690" t="n">
         <v>20.9</v>
@@ -35469,7 +35491,7 @@
         <v>45.49999999999993</v>
       </c>
       <c r="K691" t="n">
-        <v>-20.00000000000057</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L691" t="n">
         <v>20.89</v>
@@ -35520,7 +35542,7 @@
         <v>45.49999999999993</v>
       </c>
       <c r="K692" t="n">
-        <v>-20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L692" t="n">
         <v>20.88</v>
@@ -35571,7 +35593,7 @@
         <v>45.59999999999993</v>
       </c>
       <c r="K693" t="n">
-        <v>20.00000000000057</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L693" t="n">
         <v>20.89</v>
@@ -35622,7 +35644,7 @@
         <v>45.59999999999993</v>
       </c>
       <c r="K694" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L694" t="n">
         <v>20.9</v>
@@ -35673,7 +35695,7 @@
         <v>45.59999999999993</v>
       </c>
       <c r="K695" t="n">
-        <v>0</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L695" t="n">
         <v>20.91</v>
@@ -35724,7 +35746,7 @@
         <v>45.59999999999993</v>
       </c>
       <c r="K696" t="n">
-        <v>0</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L696" t="n">
         <v>20.92</v>
@@ -35775,7 +35797,7 @@
         <v>45.69999999999993</v>
       </c>
       <c r="K697" t="n">
-        <v>20.00000000000057</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L697" t="n">
         <v>20.95</v>
@@ -35826,7 +35848,7 @@
         <v>45.79999999999993</v>
       </c>
       <c r="K698" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L698" t="n">
         <v>20.97</v>
@@ -35877,7 +35899,7 @@
         <v>45.79999999999993</v>
       </c>
       <c r="K699" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L699" t="n">
         <v>20.98</v>
@@ -35928,7 +35950,7 @@
         <v>45.89999999999993</v>
       </c>
       <c r="K700" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L700" t="n">
         <v>20.98</v>
@@ -35979,7 +36001,7 @@
         <v>45.89999999999993</v>
       </c>
       <c r="K701" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L701" t="n">
         <v>20.98</v>
@@ -36081,7 +36103,7 @@
         <v>46.09999999999994</v>
       </c>
       <c r="K703" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L703" t="n">
         <v>20.98</v>
@@ -36132,7 +36154,7 @@
         <v>46.19999999999994</v>
       </c>
       <c r="K704" t="n">
-        <v>11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L704" t="n">
         <v>20.98</v>
@@ -36183,7 +36205,7 @@
         <v>46.39999999999993</v>
       </c>
       <c r="K705" t="n">
-        <v>-9.090909090908944</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L705" t="n">
         <v>20.96</v>
@@ -36234,7 +36256,7 @@
         <v>46.49999999999993</v>
       </c>
       <c r="K706" t="n">
-        <v>0</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L706" t="n">
         <v>20.95</v>
@@ -36285,7 +36307,7 @@
         <v>46.69999999999993</v>
       </c>
       <c r="K707" t="n">
-        <v>-7.692307692307819</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L707" t="n">
         <v>20.91</v>
@@ -36336,7 +36358,7 @@
         <v>46.69999999999993</v>
       </c>
       <c r="K708" t="n">
-        <v>-7.692307692307819</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L708" t="n">
         <v>20.88</v>
@@ -36387,7 +36409,7 @@
         <v>46.79999999999993</v>
       </c>
       <c r="K709" t="n">
-        <v>-23.07692307692291</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L709" t="n">
         <v>20.84</v>
@@ -36438,7 +36460,7 @@
         <v>46.89999999999992</v>
       </c>
       <c r="K710" t="n">
-        <v>-14.28571428571432</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L710" t="n">
         <v>20.82</v>
@@ -36489,7 +36511,7 @@
         <v>46.89999999999992</v>
       </c>
       <c r="K711" t="n">
-        <v>-14.28571428571432</v>
+        <v>-33.33333333333399</v>
       </c>
       <c r="L711" t="n">
         <v>20.79999999999999</v>
@@ -36540,7 +36562,7 @@
         <v>46.99999999999992</v>
       </c>
       <c r="K712" t="n">
-        <v>-6.666666666666556</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L712" t="n">
         <v>20.77999999999999</v>
@@ -36591,7 +36613,7 @@
         <v>46.99999999999992</v>
       </c>
       <c r="K713" t="n">
-        <v>-14.28571428571432</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L713" t="n">
         <v>20.77</v>
@@ -36642,7 +36664,7 @@
         <v>46.99999999999992</v>
       </c>
       <c r="K714" t="n">
-        <v>-14.28571428571432</v>
+        <v>0</v>
       </c>
       <c r="L714" t="n">
         <v>20.75</v>
@@ -36693,7 +36715,7 @@
         <v>46.99999999999992</v>
       </c>
       <c r="K715" t="n">
-        <v>-14.28571428571432</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L715" t="n">
         <v>20.75</v>
@@ -36744,7 +36766,7 @@
         <v>46.99999999999992</v>
       </c>
       <c r="K716" t="n">
-        <v>-14.28571428571432</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L716" t="n">
         <v>20.74</v>
@@ -36795,7 +36817,7 @@
         <v>46.99999999999992</v>
       </c>
       <c r="K717" t="n">
-        <v>-23.07692307692331</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L717" t="n">
         <v>20.75</v>
@@ -36846,7 +36868,7 @@
         <v>47.29999999999993</v>
       </c>
       <c r="K718" t="n">
-        <v>-33.33333333333349</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L718" t="n">
         <v>20.73</v>
@@ -36897,7 +36919,7 @@
         <v>47.39999999999993</v>
       </c>
       <c r="K719" t="n">
-        <v>-25</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L719" t="n">
         <v>20.73</v>
@@ -36948,7 +36970,7 @@
         <v>47.49999999999993</v>
       </c>
       <c r="K720" t="n">
-        <v>-25</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L720" t="n">
         <v>20.71</v>
@@ -36999,7 +37021,7 @@
         <v>47.59999999999993</v>
       </c>
       <c r="K721" t="n">
-        <v>-17.64705882352929</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L721" t="n">
         <v>20.7</v>
@@ -37050,7 +37072,7 @@
         <v>47.69999999999993</v>
       </c>
       <c r="K722" t="n">
-        <v>-29.41176470588243</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L722" t="n">
         <v>20.67</v>
@@ -37101,7 +37123,7 @@
         <v>48.19999999999993</v>
       </c>
       <c r="K723" t="n">
-        <v>-42.8571428571429</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L723" t="n">
         <v>20.59</v>
@@ -37152,7 +37174,7 @@
         <v>48.59999999999993</v>
       </c>
       <c r="K724" t="n">
-        <v>-25.00000000000015</v>
+        <v>-25</v>
       </c>
       <c r="L724" t="n">
         <v>20.55</v>
@@ -37203,7 +37225,7 @@
         <v>48.59999999999993</v>
       </c>
       <c r="K725" t="n">
-        <v>-18.18181818181831</v>
+        <v>-25</v>
       </c>
       <c r="L725" t="n">
         <v>20.51</v>
@@ -37254,7 +37276,7 @@
         <v>48.59999999999993</v>
       </c>
       <c r="K726" t="n">
-        <v>-23.8095238095238</v>
+        <v>-25</v>
       </c>
       <c r="L726" t="n">
         <v>20.47</v>
@@ -37305,7 +37327,7 @@
         <v>48.79999999999993</v>
       </c>
       <c r="K727" t="n">
-        <v>-4.761904761904657</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L727" t="n">
         <v>20.45</v>
@@ -37356,7 +37378,7 @@
         <v>48.79999999999993</v>
       </c>
       <c r="K728" t="n">
-        <v>-4.761904761904657</v>
+        <v>0</v>
       </c>
       <c r="L728" t="n">
         <v>20.46</v>
@@ -37407,7 +37429,7 @@
         <v>48.79999999999993</v>
       </c>
       <c r="K729" t="n">
-        <v>0</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L729" t="n">
         <v>20.46</v>
@@ -37458,7 +37480,7 @@
         <v>48.89999999999993</v>
       </c>
       <c r="K730" t="n">
-        <v>-9.999999999999893</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L730" t="n">
         <v>20.46</v>
@@ -37509,7 +37531,7 @@
         <v>49.29999999999993</v>
       </c>
       <c r="K731" t="n">
-        <v>-24.99999999999978</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L731" t="n">
         <v>20.41</v>
@@ -37560,7 +37582,7 @@
         <v>49.39999999999993</v>
       </c>
       <c r="K732" t="n">
-        <v>-24.99999999999993</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L732" t="n">
         <v>20.38</v>
@@ -37611,7 +37633,7 @@
         <v>49.49999999999993</v>
       </c>
       <c r="K733" t="n">
-        <v>-27.99999999999989</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L733" t="n">
         <v>20.38999999999999</v>
@@ -37662,7 +37684,7 @@
         <v>49.49999999999993</v>
       </c>
       <c r="K734" t="n">
-        <v>-27.99999999999989</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L734" t="n">
         <v>20.35999999999999</v>
@@ -37713,7 +37735,7 @@
         <v>49.69999999999993</v>
       </c>
       <c r="K735" t="n">
-        <v>-18.51851851851845</v>
+        <v>-9.090909090908886</v>
       </c>
       <c r="L735" t="n">
         <v>20.34999999999999</v>
@@ -37764,7 +37786,7 @@
         <v>49.69999999999993</v>
       </c>
       <c r="K736" t="n">
-        <v>-18.51851851851845</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L736" t="n">
         <v>20.34</v>
@@ -37815,7 +37837,7 @@
         <v>49.79999999999993</v>
       </c>
       <c r="K737" t="n">
-        <v>-14.28571428571434</v>
+        <v>-20.00000000000043</v>
       </c>
       <c r="L737" t="n">
         <v>20.32</v>
@@ -37866,7 +37888,7 @@
         <v>49.89999999999993</v>
       </c>
       <c r="K738" t="n">
-        <v>0</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L738" t="n">
         <v>20.31</v>
@@ -37917,7 +37939,7 @@
         <v>49.89999999999993</v>
       </c>
       <c r="K739" t="n">
-        <v>-4.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="L739" t="n">
         <v>20.3</v>
@@ -37968,7 +37990,7 @@
         <v>49.89999999999993</v>
       </c>
       <c r="K740" t="n">
-        <v>0</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L740" t="n">
         <v>20.3</v>
@@ -38019,7 +38041,7 @@
         <v>50.09999999999992</v>
       </c>
       <c r="K741" t="n">
-        <v>-12.00000000000006</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L741" t="n">
         <v>20.32</v>
@@ -38070,7 +38092,7 @@
         <v>50.09999999999992</v>
       </c>
       <c r="K742" t="n">
-        <v>-8.333333333333332</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L742" t="n">
         <v>20.33</v>
@@ -38121,7 +38143,7 @@
         <v>50.19999999999992</v>
       </c>
       <c r="K743" t="n">
-        <v>10</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L743" t="n">
         <v>20.34</v>
@@ -38172,7 +38194,7 @@
         <v>50.19999999999992</v>
       </c>
       <c r="K744" t="n">
-        <v>-12.5</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L744" t="n">
         <v>20.35</v>
@@ -38223,7 +38245,7 @@
         <v>50.19999999999992</v>
       </c>
       <c r="K745" t="n">
-        <v>-12.5</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L745" t="n">
         <v>20.34</v>
@@ -38274,7 +38296,7 @@
         <v>50.19999999999992</v>
       </c>
       <c r="K746" t="n">
-        <v>-12.5</v>
+        <v>-50</v>
       </c>
       <c r="L746" t="n">
         <v>20.32999999999999</v>
@@ -38325,7 +38347,7 @@
         <v>50.39999999999992</v>
       </c>
       <c r="K747" t="n">
-        <v>-12.50000000000028</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L747" t="n">
         <v>20.32999999999999</v>
@@ -38376,7 +38398,7 @@
         <v>50.49999999999991</v>
       </c>
       <c r="K748" t="n">
-        <v>-17.64705882352965</v>
+        <v>-33.33333333333393</v>
       </c>
       <c r="L748" t="n">
         <v>20.31</v>
@@ -38427,7 +38449,7 @@
         <v>50.49999999999991</v>
       </c>
       <c r="K749" t="n">
-        <v>-17.64705882352965</v>
+        <v>-33.33333333333393</v>
       </c>
       <c r="L749" t="n">
         <v>20.29</v>
@@ -38478,7 +38500,7 @@
         <v>50.59999999999991</v>
       </c>
       <c r="K750" t="n">
-        <v>-5.882352941176642</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L750" t="n">
         <v>20.28</v>
@@ -38529,7 +38551,7 @@
         <v>50.69999999999991</v>
       </c>
       <c r="K751" t="n">
-        <v>28.57142857142894</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L751" t="n">
         <v>20.3</v>
@@ -38580,7 +38602,7 @@
         <v>50.79999999999991</v>
       </c>
       <c r="K752" t="n">
-        <v>28.57142857142919</v>
+        <v>66.66666666666843</v>
       </c>
       <c r="L752" t="n">
         <v>20.32999999999999</v>
@@ -38631,7 +38653,7 @@
         <v>50.79999999999991</v>
       </c>
       <c r="K753" t="n">
-        <v>38.46153846153897</v>
+        <v>66.66666666666843</v>
       </c>
       <c r="L753" t="n">
         <v>20.37</v>
@@ -38682,7 +38704,7 @@
         <v>50.89999999999991</v>
       </c>
       <c r="K754" t="n">
-        <v>28.57142857142879</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L754" t="n">
         <v>20.4</v>
@@ -38733,7 +38755,7 @@
         <v>50.99999999999991</v>
       </c>
       <c r="K755" t="n">
-        <v>7.692307692307629</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L755" t="n">
         <v>20.42</v>
@@ -38784,7 +38806,7 @@
         <v>50.99999999999991</v>
       </c>
       <c r="K756" t="n">
-        <v>7.692307692307629</v>
+        <v>0</v>
       </c>
       <c r="L756" t="n">
         <v>20.44</v>
@@ -38835,7 +38857,7 @@
         <v>50.99999999999991</v>
       </c>
       <c r="K757" t="n">
-        <v>0</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L757" t="n">
         <v>20.44</v>
@@ -38886,7 +38908,7 @@
         <v>50.99999999999991</v>
       </c>
       <c r="K758" t="n">
-        <v>-9.090909090909326</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L758" t="n">
         <v>20.45</v>
@@ -38937,7 +38959,7 @@
         <v>50.99999999999991</v>
       </c>
       <c r="K759" t="n">
-        <v>-9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L759" t="n">
         <v>20.46</v>
@@ -38988,7 +39010,7 @@
         <v>51.09999999999991</v>
       </c>
       <c r="K760" t="n">
-        <v>-16.66666666666686</v>
+        <v>-50</v>
       </c>
       <c r="L760" t="n">
         <v>20.45</v>
@@ -39039,7 +39061,7 @@
         <v>51.1999999999999</v>
       </c>
       <c r="K761" t="n">
-        <v>9.090909090909062</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L761" t="n">
         <v>20.44</v>
@@ -39090,7 +39112,7 @@
         <v>51.2999999999999</v>
       </c>
       <c r="K762" t="n">
-        <v>0</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L762" t="n">
         <v>20.41</v>
@@ -39141,7 +39163,7 @@
         <v>51.39999999999989</v>
       </c>
       <c r="K763" t="n">
-        <v>16.66666666666706</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L763" t="n">
         <v>20.39</v>
@@ -39192,7 +39214,7 @@
         <v>51.49999999999989</v>
       </c>
       <c r="K764" t="n">
-        <v>7.692307692308028</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L764" t="n">
         <v>20.37</v>
@@ -39243,7 +39265,7 @@
         <v>51.49999999999989</v>
       </c>
       <c r="K765" t="n">
-        <v>7.692307692308028</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L765" t="n">
         <v>20.36000000000001</v>
@@ -39294,7 +39316,7 @@
         <v>51.49999999999989</v>
       </c>
       <c r="K766" t="n">
-        <v>7.692307692308028</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L766" t="n">
         <v>20.35</v>
@@ -39345,7 +39367,7 @@
         <v>51.59999999999989</v>
       </c>
       <c r="K767" t="n">
-        <v>-16.66666666666706</v>
+        <v>-33.33333333333471</v>
       </c>
       <c r="L767" t="n">
         <v>20.33000000000001</v>
@@ -39396,7 +39418,7 @@
         <v>51.79999999999988</v>
       </c>
       <c r="K768" t="n">
-        <v>7.692307692307714</v>
+        <v>0</v>
       </c>
       <c r="L768" t="n">
         <v>20.33000000000001</v>
@@ -39549,7 +39571,7 @@
         <v>52.09999999999987</v>
       </c>
       <c r="K771" t="n">
-        <v>-14.28571428571468</v>
+        <v>0</v>
       </c>
       <c r="L771" t="n">
         <v>20.32</v>
@@ -39600,7 +39622,7 @@
         <v>52.09999999999987</v>
       </c>
       <c r="K772" t="n">
-        <v>-23.07692307692394</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L772" t="n">
         <v>20.32</v>
@@ -39651,7 +39673,7 @@
         <v>52.09999999999987</v>
       </c>
       <c r="K773" t="n">
-        <v>-23.07692307692394</v>
+        <v>0</v>
       </c>
       <c r="L773" t="n">
         <v>20.31000000000001</v>
@@ -39702,7 +39724,7 @@
         <v>52.19999999999986</v>
       </c>
       <c r="K774" t="n">
-        <v>-7.692307692308114</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L774" t="n">
         <v>20.32</v>
@@ -39753,7 +39775,7 @@
         <v>52.19999999999986</v>
       </c>
       <c r="K775" t="n">
-        <v>0</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L775" t="n">
         <v>20.33000000000001</v>
@@ -39804,7 +39826,7 @@
         <v>52.19999999999986</v>
       </c>
       <c r="K776" t="n">
-        <v>0</v>
+        <v>33.33333333333471</v>
       </c>
       <c r="L776" t="n">
         <v>20.34</v>
@@ -39855,7 +39877,7 @@
         <v>52.29999999999986</v>
       </c>
       <c r="K777" t="n">
-        <v>7.692307692308114</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L777" t="n">
         <v>20.37</v>
@@ -39906,7 +39928,7 @@
         <v>52.39999999999986</v>
       </c>
       <c r="K778" t="n">
-        <v>0</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L778" t="n">
         <v>20.37</v>
@@ -39957,7 +39979,7 @@
         <v>52.49999999999986</v>
       </c>
       <c r="K779" t="n">
-        <v>6.666666666666983</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L779" t="n">
         <v>20.39</v>
@@ -40008,7 +40030,7 @@
         <v>52.59999999999987</v>
       </c>
       <c r="K780" t="n">
-        <v>6.666666666666714</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L780" t="n">
         <v>20.39</v>
@@ -40059,7 +40081,7 @@
         <v>52.79999999999987</v>
       </c>
       <c r="K781" t="n">
-        <v>12.50000000000044</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L781" t="n">
         <v>20.42</v>
@@ -40110,7 +40132,7 @@
         <v>52.99999999999987</v>
       </c>
       <c r="K782" t="n">
-        <v>29.4117647058828</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L782" t="n">
         <v>20.47</v>
@@ -40161,7 +40183,7 @@
         <v>52.99999999999987</v>
       </c>
       <c r="K783" t="n">
-        <v>25.00000000000044</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L783" t="n">
         <v>20.52</v>
@@ -40212,7 +40234,7 @@
         <v>53.39999999999987</v>
       </c>
       <c r="K784" t="n">
-        <v>47.36842105263189</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L784" t="n">
         <v>20.6</v>
@@ -40263,7 +40285,7 @@
         <v>53.49999999999987</v>
       </c>
       <c r="K785" t="n">
-        <v>40.00000000000032</v>
+        <v>53.8461538461536</v>
       </c>
       <c r="L785" t="n">
         <v>20.67</v>
@@ -40314,7 +40336,7 @@
         <v>53.49999999999987</v>
       </c>
       <c r="K786" t="n">
-        <v>40.00000000000032</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L786" t="n">
         <v>20.74</v>
@@ -40365,7 +40387,7 @@
         <v>53.59999999999987</v>
       </c>
       <c r="K787" t="n">
-        <v>40.00000000000032</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L787" t="n">
         <v>20.79</v>
@@ -40416,7 +40438,7 @@
         <v>53.59999999999987</v>
       </c>
       <c r="K788" t="n">
-        <v>33.3333333333336</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L788" t="n">
         <v>20.85</v>
@@ -40467,7 +40489,7 @@
         <v>53.59999999999987</v>
       </c>
       <c r="K789" t="n">
-        <v>41.17647058823535</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L789" t="n">
         <v>20.9</v>
@@ -40518,7 +40540,7 @@
         <v>53.79999999999987</v>
       </c>
       <c r="K790" t="n">
-        <v>22.22222222222238</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L790" t="n">
         <v>20.94</v>
@@ -40569,7 +40591,7 @@
         <v>54.09999999999987</v>
       </c>
       <c r="K791" t="n">
-        <v>9.999999999999964</v>
+        <v>-27.27272727272748</v>
       </c>
       <c r="L791" t="n">
         <v>20.93</v>
@@ -40620,7 +40642,7 @@
         <v>54.29999999999987</v>
       </c>
       <c r="K792" t="n">
-        <v>18.18181818181809</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L792" t="n">
         <v>20.91999999999999</v>
@@ -40671,7 +40693,7 @@
         <v>54.29999999999987</v>
       </c>
       <c r="K793" t="n">
-        <v>18.18181818181809</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L793" t="n">
         <v>20.90999999999999</v>
@@ -40722,7 +40744,7 @@
         <v>54.49999999999987</v>
       </c>
       <c r="K794" t="n">
-        <v>4.347826086956561</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L794" t="n">
         <v>20.84</v>
@@ -40773,7 +40795,7 @@
         <v>54.59999999999987</v>
       </c>
       <c r="K795" t="n">
-        <v>0</v>
+        <v>-63.63636363636381</v>
       </c>
       <c r="L795" t="n">
         <v>20.77</v>
@@ -40824,7 +40846,7 @@
         <v>54.59999999999987</v>
       </c>
       <c r="K796" t="n">
-        <v>0</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L796" t="n">
         <v>20.7</v>
@@ -40875,7 +40897,7 @@
         <v>54.69999999999987</v>
       </c>
       <c r="K797" t="n">
-        <v>0</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L797" t="n">
         <v>20.65</v>
@@ -40926,7 +40948,7 @@
         <v>54.69999999999987</v>
       </c>
       <c r="K798" t="n">
-        <v>4.347826086956561</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L798" t="n">
         <v>20.6</v>
@@ -40977,7 +40999,7 @@
         <v>54.69999999999987</v>
       </c>
       <c r="K799" t="n">
-        <v>0</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L799" t="n">
         <v>20.55</v>
@@ -41028,7 +41050,7 @@
         <v>54.79999999999988</v>
       </c>
       <c r="K800" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L800" t="n">
         <v>20.51</v>
@@ -41079,7 +41101,7 @@
         <v>54.79999999999988</v>
       </c>
       <c r="K801" t="n">
-        <v>-10.00000000000011</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L801" t="n">
         <v>20.5</v>
@@ -41130,7 +41152,7 @@
         <v>54.79999999999988</v>
       </c>
       <c r="K802" t="n">
-        <v>-22.22222222222229</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L802" t="n">
         <v>20.47</v>
@@ -41181,7 +41203,7 @@
         <v>54.79999999999988</v>
       </c>
       <c r="K803" t="n">
-        <v>-22.22222222222229</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L803" t="n">
         <v>20.44</v>
@@ -41232,7 +41254,7 @@
         <v>54.79999999999988</v>
       </c>
       <c r="K804" t="n">
-        <v>-57.14285714285696</v>
+        <v>0</v>
       </c>
       <c r="L804" t="n">
         <v>20.43</v>
@@ -41283,7 +41305,7 @@
         <v>54.89999999999988</v>
       </c>
       <c r="K805" t="n">
-        <v>-57.14285714285696</v>
+        <v>-33.33333333333215</v>
       </c>
       <c r="L805" t="n">
         <v>20.42</v>
@@ -41334,7 +41356,7 @@
         <v>54.89999999999988</v>
       </c>
       <c r="K806" t="n">
-        <v>-57.14285714285696</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L806" t="n">
         <v>20.41</v>
@@ -41385,7 +41407,7 @@
         <v>55.09999999999988</v>
       </c>
       <c r="K807" t="n">
-        <v>-33.33333333333318</v>
+        <v>0</v>
       </c>
       <c r="L807" t="n">
         <v>20.41</v>
@@ -41436,7 +41458,7 @@
         <v>55.09999999999988</v>
       </c>
       <c r="K808" t="n">
-        <v>-33.33333333333318</v>
+        <v>0</v>
       </c>
       <c r="L808" t="n">
         <v>20.41</v>

--- a/BackTest/2019-11-02 BackTest FNB.xlsx
+++ b/BackTest/2019-11-02 BackTest FNB.xlsx
@@ -451,17 +451,13 @@
         <v>18.375</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>18.375</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>18.37833333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>18.38000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>18.38000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>18.38000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>18.38000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>18.38000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>18.38166666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>18.38166666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>18.38166666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>18.38000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>18.37833333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>18.37666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>18.375</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>18.37666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>18.37833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>18.37833333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>18.37833333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>18.37666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>18.37666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>18.37333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>18.36833333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>18.365</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>18.36166666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>18.35833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>18.35333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>18.34833333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>18.34333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>18.34</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1501,14 @@
         <v>18.33833333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1536,14 @@
         <v>18.33833333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1571,14 @@
         <v>18.33499999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1606,14 @@
         <v>18.33333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1641,14 @@
         <v>18.33166666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1676,14 @@
         <v>18.33</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,22 +1711,14 @@
         <v>18.33</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1746,14 @@
         <v>18.33</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +1781,14 @@
         <v>18.32666666666666</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +1816,14 @@
         <v>18.32333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2167,22 +1851,14 @@
         <v>18.32</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +1886,14 @@
         <v>18.31833333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +1921,14 @@
         <v>18.31499999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +1956,14 @@
         <v>18.31166666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2339,22 +1991,14 @@
         <v>18.30833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2026,14 @@
         <v>18.30666666666666</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2425,22 +2061,14 @@
         <v>18.305</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2468,22 +2096,14 @@
         <v>18.30166666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2511,22 +2131,14 @@
         <v>18.29999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2554,22 +2166,14 @@
         <v>18.29999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K51" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2597,22 +2201,14 @@
         <v>18.29833333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2236,14 @@
         <v>18.29833333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2683,22 +2271,14 @@
         <v>18.29666666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K54" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2306,14 @@
         <v>18.29833333333332</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2769,22 +2341,14 @@
         <v>18.29833333333332</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K56" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +2376,14 @@
         <v>18.29499999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2855,22 +2411,14 @@
         <v>18.29666666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +2446,14 @@
         <v>18.29666666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2941,22 +2481,14 @@
         <v>18.29666666666666</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2984,22 +2516,14 @@
         <v>18.29833333333332</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3027,22 +2551,14 @@
         <v>18.29999999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3070,22 +2586,14 @@
         <v>18.29999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K63" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3113,22 +2621,14 @@
         <v>18.30166666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3156,22 +2656,14 @@
         <v>18.30333333333332</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K65" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3199,22 +2691,14 @@
         <v>18.30666666666665</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K66" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3242,22 +2726,14 @@
         <v>18.30666666666665</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3285,22 +2761,14 @@
         <v>18.30666666666665</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K68" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3328,22 +2796,14 @@
         <v>18.30666666666665</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K69" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3371,22 +2831,14 @@
         <v>18.30499999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K70" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3414,22 +2866,14 @@
         <v>18.30499999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3457,22 +2901,14 @@
         <v>18.30499999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +2936,14 @@
         <v>18.30666666666665</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3543,22 +2971,14 @@
         <v>18.30499999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3006,14 @@
         <v>18.30833333333332</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3629,22 +3041,14 @@
         <v>18.31166666666665</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K76" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3076,14 @@
         <v>18.31166666666665</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K77" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3715,22 +3111,14 @@
         <v>18.31166666666665</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K78" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3146,14 @@
         <v>18.31333333333332</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K79" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3801,22 +3181,14 @@
         <v>18.31499999999998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K80" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +3216,14 @@
         <v>18.31999999999998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3887,22 +3251,14 @@
         <v>18.32666666666665</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +3286,14 @@
         <v>18.33833333333332</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K83" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3979,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -4020,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4061,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4102,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4143,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4184,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4225,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4307,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4389,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4430,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4471,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4553,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4594,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4635,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4676,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4717,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4758,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4840,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4881,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4922,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -5004,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -5045,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5086,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5127,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5209,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5250,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5291,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5332,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5373,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5414,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5455,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5496,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5578,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5619,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5660,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5701,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5742,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5783,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5824,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5865,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5906,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5947,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5988,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -6029,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6070,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6111,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6152,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6193,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6234,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6275,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6316,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6357,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6398,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6439,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6480,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6521,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6562,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6603,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6644,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6685,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6726,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6767,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6808,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6849,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6890,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6931,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6972,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -7013,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -7054,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7095,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7136,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7177,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7218,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7259,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7300,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7341,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7382,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7423,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7464,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7505,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7546,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7587,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7628,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7669,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7710,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7751,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7792,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7833,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7874,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7915,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7956,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7997,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -8038,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -8079,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -8120,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8161,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8202,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8243,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8284,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8325,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8366,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8407,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8448,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8489,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8530,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8571,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8612,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8653,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8694,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8735,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8776,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8817,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8858,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8899,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8940,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8981,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -9022,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -9063,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -9104,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -9145,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9186,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9227,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9268,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9309,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9350,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9391,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9432,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9473,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9514,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9555,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9596,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9637,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9678,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9719,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9760,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9801,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9842,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9883,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9924,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9965,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -10006,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -10047,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -10088,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -10129,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10170,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10211,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10252,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10293,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10334,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10375,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10416,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10457,14 +8857,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10498,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10539,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10580,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10621,14 +8997,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10662,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10703,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10744,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10785,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10826,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10867,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10908,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10949,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10990,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -11031,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -11072,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -11113,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11154,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11195,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11236,14 +9522,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11277,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11318,14 +9592,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11359,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11400,14 +9662,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11441,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11482,14 +9732,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11523,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11564,14 +9802,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11605,14 +9837,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11646,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11687,14 +9907,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11728,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11769,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11810,14 +10012,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11851,14 +10047,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11892,14 +10082,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11933,14 +10117,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11974,14 +10152,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -12015,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -12056,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -12094,19 +10254,13 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
-        <v>1.159835164835165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -12135,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
@@ -12170,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
@@ -12205,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
@@ -12975,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
@@ -13010,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
@@ -27987,14 +26141,20 @@
         <v>20.72999999999998</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
       </c>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>20.3</v>
+      </c>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -28022,14 +26182,20 @@
         <v>20.71999999999998</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
       </c>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>20.3</v>
+      </c>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -28057,14 +26223,20 @@
         <v>20.71166666666665</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
       </c>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>20.4</v>
+      </c>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -28099,7 +26271,11 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -28134,7 +26310,11 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -28169,7 +26349,11 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -28204,7 +26388,11 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -28239,7 +26427,11 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +26466,11 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -28309,7 +26505,11 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -28337,14 +26537,20 @@
         <v>20.62499999999998</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
       </c>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>20.2</v>
+      </c>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -28372,14 +26578,20 @@
         <v>20.61833333333331</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
       </c>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>20.2</v>
+      </c>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -28407,14 +26619,20 @@
         <v>20.60999999999998</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
       </c>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>20.4</v>
+      </c>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -28449,7 +26667,11 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -28484,7 +26706,11 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -28519,7 +26745,11 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -28554,7 +26784,11 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -28589,7 +26823,11 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -28624,7 +26862,11 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -28659,7 +26901,11 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -28694,7 +26940,11 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -28729,7 +26979,11 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -28764,7 +27018,11 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -28799,7 +27057,11 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -28834,7 +27096,11 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -28869,7 +27135,11 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -28904,7 +27174,11 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -28939,7 +27213,11 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -28974,7 +27252,11 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -29009,7 +27291,11 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -29044,7 +27330,11 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -29079,7 +27369,11 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -29114,7 +27408,11 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -29149,7 +27447,11 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -29184,7 +27486,11 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -29219,7 +27525,11 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -29254,7 +27564,11 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -29289,7 +27603,11 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -29324,7 +27642,11 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -29359,7 +27681,11 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -29394,7 +27720,11 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +27759,11 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -29464,7 +27798,11 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -29499,7 +27837,11 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -29534,7 +27876,11 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -29569,7 +27915,11 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -29604,7 +27954,11 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -29639,7 +27993,11 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -29674,7 +28032,11 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -29709,7 +28071,11 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -29744,7 +28110,11 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -29779,7 +28149,11 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-02 BackTest FNB.xlsx
+++ b/BackTest/2019-11-02 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1003817.4427</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-1029857.3009</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-829857.3008999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-829857.3008999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-829847.3008999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-829847.3008999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-829847.3008999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,15 +718,17 @@
         <v>-829847.3008999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>18.4</v>
       </c>
-      <c r="J9" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,15 +757,15 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>18.4</v>
       </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -758,15 +796,15 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>18.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -797,11 +835,17 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -830,11 +874,17 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -863,11 +913,17 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -896,11 +952,17 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -929,11 +991,17 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -962,11 +1030,17 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -995,11 +1069,17 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +1108,17 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1061,11 +1147,17 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1094,11 +1186,17 @@
         <v>-918826.7442999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1225,17 @@
         <v>-913659.6208999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1160,11 +1264,17 @@
         <v>-913605.0263999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1303,17 @@
         <v>-917824.2339999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1226,11 +1342,17 @@
         <v>-917814.2339999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1259,11 +1381,17 @@
         <v>-931880.4731999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1292,11 +1420,17 @@
         <v>-929802.9056324322</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1325,11 +1459,17 @@
         <v>-929802.9056324322</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1358,11 +1498,17 @@
         <v>-929802.9056324322</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1391,11 +1537,17 @@
         <v>-929802.9056324322</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1424,11 +1576,17 @@
         <v>-1022449.293432432</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1457,11 +1615,17 @@
         <v>-1027964.231832432</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1490,11 +1654,17 @@
         <v>-995189.8824324323</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1523,11 +1693,17 @@
         <v>-1205189.882432432</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1556,11 +1732,17 @@
         <v>-1205189.882432432</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1589,11 +1771,17 @@
         <v>-1205189.882432432</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1622,11 +1810,17 @@
         <v>-1205189.882432432</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1849,17 @@
         <v>-1205189.882432432</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1688,15 +1888,17 @@
         <v>-954494.6647324323</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>18.3</v>
       </c>
-      <c r="J39" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1725,17 +1927,15 @@
         <v>-774335.6647324323</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>18.4</v>
       </c>
-      <c r="J40" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1766,15 +1966,15 @@
         <v>-774335.6647324323</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1805,11 +2005,17 @@
         <v>-781715.9636324324</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1838,11 +2044,17 @@
         <v>-781715.9636324324</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +2083,17 @@
         <v>-781715.9636324324</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1904,11 +2122,17 @@
         <v>-781715.9636324324</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +2161,17 @@
         <v>-1081715.963632432</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +2200,17 @@
         <v>-1081715.963632432</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,11 +2239,17 @@
         <v>-1075183.409349824</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2036,11 +2278,17 @@
         <v>-1075183.409349824</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2069,11 +2317,17 @@
         <v>-1223187.662849823</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2102,11 +2356,17 @@
         <v>-1223187.662849823</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2135,11 +2395,17 @@
         <v>-1223187.662849823</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2168,11 +2434,17 @@
         <v>-1223177.662849823</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2201,11 +2473,17 @@
         <v>-1391543.004449823</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2234,15 +2512,17 @@
         <v>-1196064.515949823</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>18.2</v>
       </c>
-      <c r="J55" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2271,17 +2551,15 @@
         <v>-1156146.446549824</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>18.3</v>
       </c>
-      <c r="J56" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2312,17 +2590,15 @@
         <v>-1160155.905849823</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>18.4</v>
       </c>
-      <c r="J57" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2353,15 +2629,17 @@
         <v>-1160155.905849823</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>18.3</v>
       </c>
-      <c r="J58" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2390,17 +2668,15 @@
         <v>-1160155.905849823</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>18.3</v>
       </c>
-      <c r="J59" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2431,15 +2707,15 @@
         <v>-1272983.113049824</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
         <v>18.3</v>
       </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2470,14 +2746,12 @@
         <v>-1272983.113049824</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>18.2</v>
       </c>
-      <c r="J61" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2511,12 +2785,12 @@
         <v>-1012399.229849824</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2550,14 +2824,12 @@
         <v>-628172.8602498235</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>18.3</v>
       </c>
-      <c r="J63" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2591,12 +2863,12 @@
         <v>-628172.8602498235</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2630,14 +2902,12 @@
         <v>-746667.3356324323</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>18.4</v>
       </c>
-      <c r="J65" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2671,12 +2941,12 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>18.3</v>
       </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,14 +2980,12 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>18.4</v>
       </c>
-      <c r="J67" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,14 +3019,12 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>18.4</v>
       </c>
-      <c r="J68" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,12 +3058,12 @@
         <v>-248566.0778150409</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2831,12 +3097,12 @@
         <v>-248566.0778150409</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,12 +3136,12 @@
         <v>-248566.0778150409</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2909,12 +3175,12 @@
         <v>-366332.1647150409</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2948,12 +3214,12 @@
         <v>-366332.1647150409</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2987,12 +3253,12 @@
         <v>-465661.8153150409</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3026,12 +3292,12 @@
         <v>-465661.8153150409</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
         <v>18.3</v>
       </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3065,12 +3331,12 @@
         <v>-335051.8964150409</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>18.3</v>
       </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3104,12 +3370,12 @@
         <v>-335051.8964150409</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3143,12 +3409,12 @@
         <v>-336074.8105150409</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3182,12 +3448,12 @@
         <v>-336074.8105150409</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3221,12 +3487,12 @@
         <v>-403920.6537150409</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,12 +3526,12 @@
         <v>-403920.6537150409</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
         <v>18.3</v>
       </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3299,12 +3565,12 @@
         <v>-696228.244315041</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
         <v>18.3</v>
       </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3338,12 +3604,12 @@
         <v>-696228.244315041</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3377,12 +3643,12 @@
         <v>-696228.244315041</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3416,12 +3682,12 @@
         <v>-684711.905615041</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3455,12 +3721,12 @@
         <v>-727551.964215041</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
         <v>18.3</v>
       </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,14 +3760,12 @@
         <v>-727551.964215041</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>18.2</v>
       </c>
-      <c r="J87" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,14 +3799,12 @@
         <v>-727551.964215041</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>18.2</v>
       </c>
-      <c r="J88" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,14 +3838,12 @@
         <v>-727551.964215041</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>18.2</v>
       </c>
-      <c r="J89" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3617,14 +3877,12 @@
         <v>-592595.129615041</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>18.2</v>
       </c>
-      <c r="J90" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,14 +3916,12 @@
         <v>-592595.129615041</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>18.3</v>
       </c>
-      <c r="J91" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3699,14 +3955,12 @@
         <v>-592595.129615041</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>18.3</v>
       </c>
-      <c r="J92" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3740,14 +3994,12 @@
         <v>-601223.4504150409</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>18.3</v>
       </c>
-      <c r="J93" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3781,14 +4033,12 @@
         <v>-601223.4504150409</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>18.2</v>
       </c>
-      <c r="J94" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,14 +4072,12 @@
         <v>-601223.4504150409</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>18.2</v>
       </c>
-      <c r="J95" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3863,14 +4111,12 @@
         <v>-601223.4504150409</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>18.2</v>
       </c>
-      <c r="J96" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,14 +4150,12 @@
         <v>-571797.8220150409</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>18.2</v>
       </c>
-      <c r="J97" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,14 +4189,12 @@
         <v>-571797.8220150409</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>18.3</v>
       </c>
-      <c r="J98" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,14 +4228,12 @@
         <v>-612731.8385150409</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>18.3</v>
       </c>
-      <c r="J99" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,14 +4267,12 @@
         <v>-580410.2503150409</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>18.2</v>
       </c>
-      <c r="J100" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4068,14 +4306,12 @@
         <v>-580410.2503150409</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>18.3</v>
       </c>
-      <c r="J101" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,14 +4345,12 @@
         <v>-580410.2503150409</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>18.3</v>
       </c>
-      <c r="J102" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,14 +4384,12 @@
         <v>-690300.360215041</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>18.3</v>
       </c>
-      <c r="J103" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,14 +4423,12 @@
         <v>-690300.360215041</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>18.2</v>
       </c>
-      <c r="J104" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,14 +4462,12 @@
         <v>-690300.360215041</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>18.2</v>
       </c>
-      <c r="J105" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4273,14 +4501,12 @@
         <v>-690300.360215041</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>18.2</v>
       </c>
-      <c r="J106" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,14 +4540,12 @@
         <v>-690300.360215041</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>18.2</v>
       </c>
-      <c r="J107" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,14 +4579,12 @@
         <v>-690300.360215041</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>18.2</v>
       </c>
-      <c r="J108" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,14 +4618,12 @@
         <v>-507031.2564150409</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>18.2</v>
       </c>
-      <c r="J109" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4437,14 +4657,12 @@
         <v>-507031.2564150409</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>18.3</v>
       </c>
-      <c r="J110" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,14 +4696,12 @@
         <v>-512898.9034150409</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>18.3</v>
       </c>
-      <c r="J111" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4519,14 +4735,12 @@
         <v>-512888.9034150409</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>18.2</v>
       </c>
-      <c r="J112" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4560,14 +4774,12 @@
         <v>-512888.9034150409</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>18.3</v>
       </c>
-      <c r="J113" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,14 +4813,12 @@
         <v>-512888.9034150409</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>18.3</v>
       </c>
-      <c r="J114" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,14 +4852,12 @@
         <v>-512888.9034150409</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>18.3</v>
       </c>
-      <c r="J115" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,14 +4891,12 @@
         <v>-606147.1556150409</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>18.3</v>
       </c>
-      <c r="J116" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,14 +4930,12 @@
         <v>-586504.7708150409</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>18.2</v>
       </c>
-      <c r="J117" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,14 +4969,12 @@
         <v>-592091.0751150409</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>18.4</v>
       </c>
-      <c r="J118" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,14 +5008,12 @@
         <v>-592091.0751150409</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>18.3</v>
       </c>
-      <c r="J119" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4847,14 +5047,12 @@
         <v>-592091.0751150409</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>18.3</v>
       </c>
-      <c r="J120" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4888,14 +5086,12 @@
         <v>-592091.0751150409</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>18.3</v>
       </c>
-      <c r="J121" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4929,14 +5125,12 @@
         <v>-592091.0751150409</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>18.3</v>
       </c>
-      <c r="J122" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,14 +5164,12 @@
         <v>-461610.1943772031</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>18.3</v>
       </c>
-      <c r="J123" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5011,14 +5203,12 @@
         <v>-461610.1943772031</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>18.5</v>
       </c>
-      <c r="J124" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5052,14 +5242,12 @@
         <v>-461610.1943772031</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>18.5</v>
       </c>
-      <c r="J125" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5093,12 +5281,12 @@
         <v>-466084.2758772031</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5132,12 +5320,12 @@
         <v>-466084.2758772031</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5171,12 +5359,12 @@
         <v>-466084.2758772031</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5210,12 +5398,12 @@
         <v>-466084.2758772031</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5249,12 +5437,12 @@
         <v>-66431.21793125721</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5288,12 +5476,12 @@
         <v>-66431.21793125721</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5327,12 +5515,12 @@
         <v>-66431.21793125721</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5366,12 +5554,12 @@
         <v>-552335.8573312572</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5405,12 +5593,12 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
         <v>18.3</v>
       </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5444,12 +5632,12 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5483,12 +5671,12 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5522,12 +5710,12 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,12 +5749,12 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5600,12 +5788,12 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5639,12 +5827,12 @@
         <v>65195.0359687428</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5678,12 +5866,12 @@
         <v>375408.6585687428</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5717,12 +5905,12 @@
         <v>2678548.90643024</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>18.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5759,9 +5947,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5798,9 +5984,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,9 +6021,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,9 +6058,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,9 +6095,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5954,9 +6132,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5993,9 +6169,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6032,9 +6206,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,9 +6243,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6110,9 +6280,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6149,9 +6317,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6188,9 +6354,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,9 +6391,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6266,9 +6428,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,9 +6465,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,9 +6502,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,9 +6539,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6422,9 +6576,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,9 +6613,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6500,9 +6650,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6539,9 +6687,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6578,9 +6724,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6617,9 +6761,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6656,9 +6798,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6695,9 +6835,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6734,9 +6872,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6773,9 +6909,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6812,9 +6946,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6851,9 +6983,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,9 +7020,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6929,9 +7057,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6968,9 +7094,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7007,9 +7131,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7046,9 +7168,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7085,9 +7205,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7124,9 +7242,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7163,9 +7279,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7202,9 +7316,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,9 +7353,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7280,9 +7390,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7319,9 +7427,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,9 +7464,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,9 +7501,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,9 +7538,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,9 +7575,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7514,9 +7612,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7553,9 +7649,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7592,9 +7686,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7631,9 +7723,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,9 +7760,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,9 +7797,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7748,9 +7834,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,9 +7871,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7826,9 +7908,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,9 +7945,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,9 +7982,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7943,9 +8019,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7982,9 +8056,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8021,9 +8093,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8060,9 +8130,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,9 +8167,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8138,9 +8204,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8177,9 +8241,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8216,9 +8278,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8255,9 +8315,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,9 +8352,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8333,9 +8389,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8372,9 +8426,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8411,9 +8463,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8450,9 +8500,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,9 +8537,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8528,9 +8574,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8567,9 +8611,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8606,9 +8648,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8645,9 +8685,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8684,9 +8722,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8723,9 +8759,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8762,9 +8796,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8801,9 +8833,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8840,9 +8870,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8879,9 +8907,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8918,9 +8944,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8957,9 +8981,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8996,9 +9018,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9035,9 +9055,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9074,9 +9092,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9113,9 +9129,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,9 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,9 +9203,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9230,9 +9240,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9269,9 +9277,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9308,9 +9314,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,9 +9351,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9386,9 +9388,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9425,9 +9425,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9464,9 +9462,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9503,9 +9499,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9542,9 +9536,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9581,9 +9573,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9620,9 +9610,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9659,9 +9647,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9698,9 +9684,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9737,9 +9721,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9776,9 +9758,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9815,9 +9795,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9854,9 +9832,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9893,9 +9869,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9932,9 +9906,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9971,9 +9943,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10010,9 +9980,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10049,9 +10017,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10088,9 +10054,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10127,9 +10091,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10166,9 +10128,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10205,9 +10165,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10244,9 +10202,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10283,9 +10239,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10322,9 +10276,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10361,9 +10313,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10400,9 +10350,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10439,9 +10387,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10478,9 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10517,9 +10461,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10556,9 +10498,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10595,9 +10535,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10634,9 +10572,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10673,9 +10609,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10712,9 +10646,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10751,9 +10683,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10790,9 +10720,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10829,9 +10757,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10868,9 +10794,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10907,9 +10831,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10946,9 +10868,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,9 +10905,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11024,9 +10942,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11063,9 +10979,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,9 +11016,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11141,9 +11053,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11180,9 +11090,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11219,9 +11127,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11258,9 +11164,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11297,9 +11201,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11336,9 +11238,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11375,9 +11275,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11414,9 +11312,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11453,9 +11349,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11492,9 +11386,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11531,9 +11423,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11570,9 +11460,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,9 +11497,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11648,9 +11534,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11687,9 +11571,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11726,9 +11608,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11765,9 +11645,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11804,9 +11682,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11843,9 +11719,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11882,9 +11756,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11921,9 +11793,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11960,9 +11830,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11999,9 +11867,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12038,9 +11904,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12077,9 +11941,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12116,9 +11978,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12155,9 +12015,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12194,9 +12052,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12233,9 +12089,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12272,9 +12126,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12311,9 +12163,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12350,9 +12200,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12389,9 +12237,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12428,9 +12274,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12467,9 +12311,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12506,9 +12348,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12545,9 +12385,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12584,9 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12623,9 +12459,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12662,9 +12496,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12701,9 +12533,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12740,9 +12570,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12779,9 +12607,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12818,9 +12644,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12857,9 +12681,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12896,9 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12935,9 +12755,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12974,9 +12792,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13013,9 +12829,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13049,23 +12863,19 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L330" t="n">
-        <v>1.115218579234973</v>
-      </c>
-      <c r="M330" t="n">
-        <v>1.016483516483516</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -13090,11 +12900,15 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +12937,15 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +12974,15 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13011,15 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13048,15 @@
         <v>13515385.2719456</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13085,15 @@
         <v>14933575.97466793</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13122,15 @@
         <v>15868011.88596793</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13159,15 @@
         <v>16562739.15066792</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13196,15 @@
         <v>17174089.1922316</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13233,15 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13270,15 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13307,15 @@
         <v>17244605.3553316</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13344,15 @@
         <v>16551387.75093908</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13381,15 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13418,15 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13455,15 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +13496,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +13533,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13570,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +13607,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +13644,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13677,15 @@
         <v>19388711.87561578</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13714,15 @@
         <v>18865661.19937634</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +13751,15 @@
         <v>17549093.67937634</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13788,15 @@
         <v>18125302.65397634</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +13825,15 @@
         <v>17131371.27962162</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +13866,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +13903,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +13940,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +13977,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14014,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14051,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14088,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14125,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +14158,15 @@
         <v>22147381.71429976</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14245,14 +14195,16 @@
         <v>20225272.91659976</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -14278,7 +14230,7 @@
         <v>20882203.77089976</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14311,7 +14263,7 @@
         <v>19194175.67129976</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14344,7 +14296,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14377,7 +14329,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14410,7 +14362,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14443,7 +14395,7 @@
         <v>17912024.69252086</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14476,7 +14428,7 @@
         <v>17510476.70882086</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14509,7 +14461,7 @@
         <v>16804009.23384179</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14542,7 +14494,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14575,7 +14527,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14608,7 +14560,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14641,7 +14593,7 @@
         <v>18072395.37534179</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14674,7 +14626,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14707,7 +14659,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14740,7 +14692,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14773,7 +14725,7 @@
         <v>18208513.05874179</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14806,7 +14758,7 @@
         <v>17577034.26614179</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14839,7 +14791,7 @@
         <v>17642436.0520697</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14872,7 +14824,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14905,7 +14857,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14938,7 +14890,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14971,7 +14923,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15004,7 +14956,7 @@
         <v>17598307.55579296</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15037,7 +14989,7 @@
         <v>17208479.14829296</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15070,7 +15022,7 @@
         <v>17340305.49029296</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15103,7 +15055,7 @@
         <v>17265689.73749296</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15136,7 +15088,7 @@
         <v>17384132.71369296</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15169,7 +15121,7 @@
         <v>17250479.15709296</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15202,7 +15154,7 @@
         <v>17250479.15709296</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15235,7 +15187,7 @@
         <v>15538149.23329296</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15268,7 +15220,7 @@
         <v>15749877.58419296</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15301,7 +15253,7 @@
         <v>15749877.58419296</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15334,7 +15286,7 @@
         <v>13271212.75279296</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15367,7 +15319,7 @@
         <v>13532249.25399296</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15400,7 +15352,7 @@
         <v>13532249.25399296</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15433,7 +15385,7 @@
         <v>13756306.92139296</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15466,7 +15418,7 @@
         <v>13968345.75969296</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15499,7 +15451,7 @@
         <v>13968345.75969296</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15532,7 +15484,7 @@
         <v>14021189.11709296</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15565,7 +15517,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15598,7 +15550,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15631,7 +15583,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15664,7 +15616,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15697,7 +15649,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15730,7 +15682,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15763,7 +15715,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15796,7 +15748,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15829,7 +15781,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15862,7 +15814,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15895,7 +15847,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15928,7 +15880,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15961,7 +15913,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15994,7 +15946,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16027,7 +15979,7 @@
         <v>13763126.70579296</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16060,7 +16012,7 @@
         <v>13859301.92239296</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16093,7 +16045,7 @@
         <v>13859301.92239296</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16126,7 +16078,7 @@
         <v>13574846.03999296</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16159,7 +16111,7 @@
         <v>13574846.03999296</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16192,7 +16144,7 @@
         <v>13606705.66259296</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16225,7 +16177,7 @@
         <v>13606705.66259296</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16258,7 +16210,7 @@
         <v>13606705.66259296</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16291,7 +16243,7 @@
         <v>13606705.66259296</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16324,7 +16276,7 @@
         <v>13443805.94059296</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16357,7 +16309,7 @@
         <v>13447924.86069296</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16390,7 +16342,7 @@
         <v>13376326.75519296</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16423,7 +16375,7 @@
         <v>13542477.38259296</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16522,7 +16474,7 @@
         <v>13611194.43449296</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16588,7 +16540,7 @@
         <v>13611194.43449296</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16621,7 +16573,7 @@
         <v>13611194.43449296</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16654,7 +16606,7 @@
         <v>13968935.39069296</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16687,7 +16639,7 @@
         <v>13968935.39069296</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16720,7 +16672,7 @@
         <v>13968935.39069296</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16753,7 +16705,7 @@
         <v>14173596.05939296</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16786,7 +16738,7 @@
         <v>13920423.67689296</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16819,7 +16771,7 @@
         <v>13920423.67689296</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16852,7 +16804,7 @@
         <v>13455391.62159296</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16885,7 +16837,7 @@
         <v>13516154.20069296</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16918,7 +16870,7 @@
         <v>13516154.20069296</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16951,7 +16903,7 @@
         <v>13516154.20069296</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16984,7 +16936,7 @@
         <v>13430987.82399296</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17017,7 +16969,7 @@
         <v>13430987.82399296</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17050,7 +17002,7 @@
         <v>13431001.82399296</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17083,7 +17035,7 @@
         <v>12518039.67619296</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17116,7 +17068,7 @@
         <v>12500390.89709296</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17149,7 +17101,7 @@
         <v>12700411.28669296</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17182,7 +17134,7 @@
         <v>12700411.28669296</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17215,7 +17167,7 @@
         <v>12700411.28669296</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17248,7 +17200,7 @@
         <v>12642969.78339296</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17281,7 +17233,7 @@
         <v>12642969.78339296</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17314,7 +17266,7 @@
         <v>12642969.78339296</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17347,7 +17299,7 @@
         <v>12642969.78339296</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17380,7 +17332,7 @@
         <v>12329997.98769296</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17413,7 +17365,7 @@
         <v>12345474.93539296</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17446,7 +17398,7 @@
         <v>12345474.93539296</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17479,7 +17431,7 @@
         <v>12344664.93539296</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17512,7 +17464,7 @@
         <v>12354674.93539296</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17545,7 +17497,7 @@
         <v>12320815.72419296</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17578,7 +17530,7 @@
         <v>12320815.72419296</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17611,7 +17563,7 @@
         <v>12320815.72419296</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17644,7 +17596,7 @@
         <v>12320618.21919296</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17677,7 +17629,7 @@
         <v>12320618.21919296</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17710,7 +17662,7 @@
         <v>12547554.45219296</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17743,7 +17695,7 @@
         <v>12472538.91449296</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17776,7 +17728,7 @@
         <v>12472538.91449296</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17809,7 +17761,7 @@
         <v>12514980.86149296</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17842,7 +17794,7 @@
         <v>12514980.86149296</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17875,7 +17827,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17908,7 +17860,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17941,7 +17893,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17974,7 +17926,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18007,7 +17959,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18040,7 +17992,7 @@
         <v>12382651.08549296</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18073,7 +18025,7 @@
         <v>12382651.08549296</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18106,7 +18058,7 @@
         <v>12382651.08549296</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18139,7 +18091,7 @@
         <v>10866315.44917353</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18172,7 +18124,7 @@
         <v>10172007.57507353</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18205,7 +18157,7 @@
         <v>9595381.670273529</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18238,7 +18190,7 @@
         <v>10232170.86847353</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18271,7 +18223,7 @@
         <v>10570791.56527353</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18304,7 +18256,7 @@
         <v>10570791.56527353</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -20218,7 +20170,7 @@
         <v>10099333.32212438</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20251,7 +20203,7 @@
         <v>10157285.26212438</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20284,7 +20236,7 @@
         <v>10086163.33912438</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20845,7 +20797,7 @@
         <v>10841282.8899021</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20878,7 +20830,7 @@
         <v>11155818.6047021</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20977,7 +20929,7 @@
         <v>11682278.4719021</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21010,7 +20962,7 @@
         <v>11682278.4719021</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21076,7 +21028,7 @@
         <v>11182382.1908021</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21109,7 +21061,7 @@
         <v>11298700.5371021</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21142,7 +21094,7 @@
         <v>11348958.7040021</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21373,7 +21325,7 @@
         <v>11788514.2962298</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21406,7 +21358,7 @@
         <v>11880898.8773298</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21439,7 +21391,7 @@
         <v>11880898.8773298</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21472,7 +21424,7 @@
         <v>11874839.0648298</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21505,7 +21457,7 @@
         <v>12048667.8753298</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21538,7 +21490,7 @@
         <v>12048667.8753298</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21604,7 +21556,7 @@
         <v>11996762.4968298</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21637,7 +21589,7 @@
         <v>11996762.4968298</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21670,7 +21622,7 @@
         <v>12007330.3389298</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21835,7 +21787,7 @@
         <v>11468395.4355298</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22000,7 +21952,7 @@
         <v>11428621.7659298</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22033,7 +21985,7 @@
         <v>11427422.0044298</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22066,7 +22018,7 @@
         <v>11619598.1836298</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22099,7 +22051,7 @@
         <v>11627871.2453298</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22132,7 +22084,7 @@
         <v>11571889.1305298</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22165,7 +22117,7 @@
         <v>11572413.7783298</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22231,7 +22183,7 @@
         <v>11550852.9295298</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22396,7 +22348,7 @@
         <v>11381588.9969298</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22429,7 +22381,7 @@
         <v>11453546.1204298</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22495,7 +22447,7 @@
         <v>11487802.5227298</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23518,7 +23470,7 @@
         <v>12320867.5888298</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23617,7 +23569,7 @@
         <v>12370878.5888298</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23650,7 +23602,7 @@
         <v>13458530.3730298</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23683,7 +23635,7 @@
         <v>13458530.3730298</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23716,7 +23668,7 @@
         <v>14188048.4538298</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23749,7 +23701,7 @@
         <v>14188048.4538298</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23782,7 +23734,7 @@
         <v>13022699.61462981</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23815,7 +23767,7 @@
         <v>13022699.61462981</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23848,7 +23800,7 @@
         <v>12712765.1786298</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23881,7 +23833,7 @@
         <v>12712765.1786298</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23914,7 +23866,7 @@
         <v>12571514.2756298</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23980,7 +23932,7 @@
         <v>12660129.4991205</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24013,7 +23965,7 @@
         <v>12663905.4319205</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24046,7 +23998,7 @@
         <v>12663905.4319205</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24079,7 +24031,7 @@
         <v>12663905.4319205</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24112,7 +24064,7 @@
         <v>12572721.7503205</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24145,7 +24097,7 @@
         <v>12572721.7503205</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24178,7 +24130,7 @@
         <v>12233469.3245205</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24211,7 +24163,7 @@
         <v>12233469.3245205</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24244,7 +24196,7 @@
         <v>12239029.1326205</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24277,7 +24229,7 @@
         <v>12082293.8905205</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24310,7 +24262,7 @@
         <v>12082293.8905205</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24343,7 +24295,7 @@
         <v>12082293.8905205</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24376,7 +24328,7 @@
         <v>12082293.8905205</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24409,7 +24361,7 @@
         <v>11816124.8716205</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24442,7 +24394,7 @@
         <v>11558435.2897205</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24475,7 +24427,7 @@
         <v>11558445.2897205</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24508,7 +24460,7 @@
         <v>11558445.2897205</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24541,7 +24493,7 @@
         <v>11572529.7967205</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24574,7 +24526,7 @@
         <v>11546549.6837205</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24607,7 +24559,7 @@
         <v>11700210.3781205</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24640,7 +24592,7 @@
         <v>11700210.3781205</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24673,7 +24625,7 @@
         <v>11700210.3781205</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24706,7 +24658,7 @@
         <v>11692872.2178205</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24739,7 +24691,7 @@
         <v>11565545.2477205</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24772,7 +24724,7 @@
         <v>11565545.2477205</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24805,7 +24757,7 @@
         <v>11565545.2477205</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24838,7 +24790,7 @@
         <v>11333812.4084205</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24871,7 +24823,7 @@
         <v>11333812.4084205</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24904,7 +24856,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24937,7 +24889,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24970,7 +24922,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25003,7 +24955,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25036,7 +24988,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25069,7 +25021,7 @@
         <v>11419970.6252205</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -27148,7 +27100,7 @@
         <v>11591900.33850352</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -30019,7 +29971,7 @@
         <v>6779278.013931964</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30052,7 +30004,7 @@
         <v>6779278.013931964</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30085,7 +30037,7 @@
         <v>6744377.857731964</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30118,7 +30070,7 @@
         <v>6744377.857731964</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30426,6 +30378,6 @@
       <c r="M856" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest FNB.xlsx
+++ b/BackTest/2019-11-02 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1003817.4427</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -796,11 +796,9 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,11 +833,9 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +870,9 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +907,9 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +944,9 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -3097,11 +3087,9 @@
         <v>-248566.0778150409</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3136,11 +3124,9 @@
         <v>-248566.0778150409</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3175,11 +3161,9 @@
         <v>-366332.1647150409</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3214,11 +3198,9 @@
         <v>-366332.1647150409</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3253,11 +3235,9 @@
         <v>-465661.8153150409</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3370,11 +3350,9 @@
         <v>-335051.8964150409</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3409,11 +3387,9 @@
         <v>-336074.8105150409</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3448,11 +3424,9 @@
         <v>-336074.8105150409</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3487,11 +3461,9 @@
         <v>-403920.6537150409</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3526,11 +3498,9 @@
         <v>-403920.6537150409</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3565,11 +3535,9 @@
         <v>-696228.244315041</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -5671,11 +5639,9 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5710,11 +5676,9 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5749,11 +5713,9 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5788,11 +5750,9 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5827,11 +5787,9 @@
         <v>65195.0359687428</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5866,11 +5824,9 @@
         <v>375408.6585687428</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>18.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5905,11 +5861,9 @@
         <v>2678548.90643024</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -6943,18 +6897,16 @@
         <v>5370867.413902699</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -6980,15 +6932,11 @@
         <v>5370867.413902699</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7021,11 +6969,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7054,15 +6998,11 @@
         <v>6643870.128102698</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7091,15 +7031,11 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7128,15 +7064,11 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7165,15 +7097,11 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7202,15 +7130,11 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7239,15 +7163,11 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7276,15 +7196,11 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7313,15 +7229,11 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7350,15 +7262,11 @@
         <v>9884409.263402699</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7387,15 +7295,11 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7424,15 +7328,11 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7461,15 +7361,11 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7498,15 +7394,11 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7535,15 +7427,11 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7572,15 +7460,11 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7613,11 +7497,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +7530,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7687,11 +7563,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7724,11 +7596,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7761,11 +7629,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7798,11 +7662,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7835,11 +7695,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7872,11 +7728,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7761,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7946,11 +7794,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7983,11 +7827,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8020,11 +7860,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8057,11 +7893,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8094,11 +7926,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8131,11 +7959,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8168,11 +7992,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8205,11 +8025,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +8058,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8275,15 +8087,11 @@
         <v>9572465.359602695</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8312,15 +8120,11 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8349,15 +8153,11 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8386,15 +8186,11 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8423,15 +8219,11 @@
         <v>10425452.2672027</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8460,15 +8252,11 @@
         <v>10425452.2672027</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8497,15 +8285,11 @@
         <v>10733081.6855027</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8534,15 +8318,11 @@
         <v>10648808.4977027</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8571,15 +8351,11 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8608,15 +8384,11 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8645,15 +8417,11 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8682,15 +8450,11 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8719,15 +8483,11 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8756,15 +8516,11 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8793,15 +8549,11 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8834,11 +8586,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8871,11 +8619,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8908,11 +8652,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8945,11 +8685,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8982,11 +8718,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9019,11 +8751,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9056,11 +8784,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9093,11 +8817,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +8850,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9167,11 +8883,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9204,11 +8916,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9241,11 +8949,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9278,11 +8982,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9315,11 +9015,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9348,15 +9044,11 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9385,15 +9077,11 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9422,15 +9110,11 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9459,15 +9143,11 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9496,15 +9176,11 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9533,15 +9209,11 @@
         <v>11329806.5367027</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9570,15 +9242,11 @@
         <v>11329806.5367027</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9607,15 +9275,11 @@
         <v>10631573.0031027</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9644,15 +9308,11 @@
         <v>11612060.6016027</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9681,15 +9341,11 @@
         <v>11612060.6016027</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9718,15 +9374,11 @@
         <v>10109005.3735027</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9755,15 +9407,11 @@
         <v>10960635.5959027</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9796,11 +9444,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9833,11 +9477,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9870,11 +9510,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9907,11 +9543,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9944,11 +9576,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9981,11 +9609,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10018,11 +9642,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10055,11 +9675,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10092,11 +9708,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10129,11 +9741,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10166,11 +9774,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10199,15 +9803,11 @@
         <v>11108882.2050027</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10236,15 +9836,11 @@
         <v>11053285.25370269</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10273,15 +9869,11 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10310,15 +9902,11 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10347,15 +9935,11 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10384,15 +9968,11 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10421,15 +10001,11 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10458,15 +10034,11 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10495,15 +10067,11 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10532,15 +10100,11 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10569,15 +10133,11 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10606,15 +10166,11 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10643,15 +10199,11 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10680,15 +10232,11 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10717,15 +10265,11 @@
         <v>11047013.53220269</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10754,15 +10298,11 @@
         <v>11192867.90543056</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10791,15 +10331,11 @@
         <v>11192867.90543056</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10828,15 +10364,11 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10865,15 +10397,11 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10902,15 +10430,11 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10943,11 +10467,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10976,15 +10496,11 @@
         <v>10146110.13423055</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11017,11 +10533,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11054,11 +10566,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11091,11 +10599,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11128,11 +10632,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11165,11 +10665,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11202,11 +10698,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11239,11 +10731,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11276,11 +10764,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11313,11 +10797,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11350,11 +10830,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11387,11 +10863,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11424,11 +10896,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11461,11 +10929,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11498,11 +10962,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11535,11 +10995,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11028,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11609,11 +11061,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11646,11 +11094,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11683,11 +11127,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11720,11 +11160,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11757,11 +11193,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11794,11 +11226,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11831,11 +11259,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11868,11 +11292,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11905,11 +11325,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11942,11 +11358,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11979,11 +11391,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12016,11 +11424,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12053,11 +11457,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12090,11 +11490,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12127,11 +11523,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12164,11 +11556,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12201,11 +11589,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12238,11 +11622,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12275,11 +11655,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12312,11 +11688,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12349,11 +11721,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12386,11 +11754,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12423,11 +11787,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12460,11 +11820,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12497,11 +11853,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12534,11 +11886,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12571,11 +11919,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12608,11 +11952,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12645,11 +11985,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12682,11 +12018,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12719,11 +12051,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12756,11 +12084,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +12117,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12830,11 +12150,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12863,15 +12179,11 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12900,15 +12212,11 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12937,15 +12245,11 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12974,15 +12278,11 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13011,15 +12311,11 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13048,15 +12344,11 @@
         <v>13515385.2719456</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13085,15 +12377,11 @@
         <v>14933575.97466793</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13122,15 +12410,11 @@
         <v>15868011.88596793</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13159,15 +12443,11 @@
         <v>16562739.15066792</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13196,15 +12476,11 @@
         <v>17174089.1922316</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13233,15 +12509,11 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13270,15 +12542,11 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13307,15 +12575,11 @@
         <v>17244605.3553316</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13344,15 +12608,11 @@
         <v>16551387.75093908</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13381,15 +12641,11 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13418,15 +12674,11 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13455,15 +12707,11 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13492,15 +12740,11 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13529,15 +12773,11 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13566,15 +12806,11 @@
         <v>17674875.88512185</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13603,15 +12839,11 @@
         <v>18262954.84542185</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13644,11 +12876,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13681,11 +12909,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13718,11 +12942,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13755,11 +12975,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13792,11 +13008,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13829,11 +13041,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13866,11 +13074,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13903,11 +13107,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13940,11 +13140,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13977,11 +13173,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +13206,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14051,11 +13239,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14088,11 +13272,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14125,11 +13305,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14162,11 +13338,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14195,16 +13367,14 @@
         <v>20225272.91659976</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
       <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -14230,7 +13400,7 @@
         <v>20882203.77089976</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14263,7 +13433,7 @@
         <v>19194175.67129976</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14296,7 +13466,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14329,7 +13499,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14362,7 +13532,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14395,7 +13565,7 @@
         <v>17912024.69252086</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14428,7 +13598,7 @@
         <v>17510476.70882086</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14461,7 +13631,7 @@
         <v>16804009.23384179</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14494,7 +13664,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14527,7 +13697,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14560,7 +13730,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14593,7 +13763,7 @@
         <v>18072395.37534179</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14626,7 +13796,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14659,7 +13829,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14692,7 +13862,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14725,7 +13895,7 @@
         <v>18208513.05874179</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14758,7 +13928,7 @@
         <v>17577034.26614179</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14791,7 +13961,7 @@
         <v>17642436.0520697</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14824,7 +13994,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14857,7 +14027,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14890,7 +14060,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14923,7 +14093,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14956,7 +14126,7 @@
         <v>17598307.55579296</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14989,7 +14159,7 @@
         <v>17208479.14829296</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15022,7 +14192,7 @@
         <v>17340305.49029296</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15055,7 +14225,7 @@
         <v>17265689.73749296</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15088,7 +14258,7 @@
         <v>17384132.71369296</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15121,7 +14291,7 @@
         <v>17250479.15709296</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15154,7 +14324,7 @@
         <v>17250479.15709296</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15187,7 +14357,7 @@
         <v>15538149.23329296</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15220,7 +14390,7 @@
         <v>15749877.58419296</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15253,7 +14423,7 @@
         <v>15749877.58419296</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15286,7 +14456,7 @@
         <v>13271212.75279296</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15319,7 +14489,7 @@
         <v>13532249.25399296</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15352,7 +14522,7 @@
         <v>13532249.25399296</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15385,7 +14555,7 @@
         <v>13756306.92139296</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15418,7 +14588,7 @@
         <v>13968345.75969296</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15451,7 +14621,7 @@
         <v>13968345.75969296</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15484,7 +14654,7 @@
         <v>14021189.11709296</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15517,7 +14687,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15550,7 +14720,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15583,7 +14753,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15616,7 +14786,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15649,7 +14819,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15682,7 +14852,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15715,7 +14885,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15748,7 +14918,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15781,7 +14951,7 @@
         <v>13989425.34869296</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15814,7 +14984,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15847,7 +15017,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15880,7 +15050,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15913,7 +15083,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15946,7 +15116,7 @@
         <v>13632570.48479296</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15979,7 +15149,7 @@
         <v>13763126.70579296</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16012,7 +15182,7 @@
         <v>13859301.92239296</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16045,7 +15215,7 @@
         <v>13859301.92239296</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16078,7 +15248,7 @@
         <v>13574846.03999296</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16111,7 +15281,7 @@
         <v>13574846.03999296</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16144,7 +15314,7 @@
         <v>13606705.66259296</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16177,7 +15347,7 @@
         <v>13606705.66259296</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16210,7 +15380,7 @@
         <v>13606705.66259296</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16243,7 +15413,7 @@
         <v>13606705.66259296</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16276,7 +15446,7 @@
         <v>13443805.94059296</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16309,7 +15479,7 @@
         <v>13447924.86069296</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16342,7 +15512,7 @@
         <v>13376326.75519296</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16375,7 +15545,7 @@
         <v>13542477.38259296</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16474,7 +15644,7 @@
         <v>13611194.43449296</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16540,7 +15710,7 @@
         <v>13611194.43449296</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16573,7 +15743,7 @@
         <v>13611194.43449296</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16606,7 +15776,7 @@
         <v>13968935.39069296</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16639,7 +15809,7 @@
         <v>13968935.39069296</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16672,7 +15842,7 @@
         <v>13968935.39069296</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16705,7 +15875,7 @@
         <v>14173596.05939296</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16738,7 +15908,7 @@
         <v>13920423.67689296</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16771,7 +15941,7 @@
         <v>13920423.67689296</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16804,7 +15974,7 @@
         <v>13455391.62159296</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16837,7 +16007,7 @@
         <v>13516154.20069296</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16870,7 +16040,7 @@
         <v>13516154.20069296</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16903,7 +16073,7 @@
         <v>13516154.20069296</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16936,7 +16106,7 @@
         <v>13430987.82399296</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16969,7 +16139,7 @@
         <v>13430987.82399296</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17002,7 +16172,7 @@
         <v>13431001.82399296</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17035,7 +16205,7 @@
         <v>12518039.67619296</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17068,7 +16238,7 @@
         <v>12500390.89709296</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17101,7 +16271,7 @@
         <v>12700411.28669296</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17134,7 +16304,7 @@
         <v>12700411.28669296</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17167,7 +16337,7 @@
         <v>12700411.28669296</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17200,7 +16370,7 @@
         <v>12642969.78339296</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17233,7 +16403,7 @@
         <v>12642969.78339296</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17266,7 +16436,7 @@
         <v>12642969.78339296</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17299,7 +16469,7 @@
         <v>12642969.78339296</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17332,7 +16502,7 @@
         <v>12329997.98769296</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17365,7 +16535,7 @@
         <v>12345474.93539296</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17398,7 +16568,7 @@
         <v>12345474.93539296</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17431,7 +16601,7 @@
         <v>12344664.93539296</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17464,7 +16634,7 @@
         <v>12354674.93539296</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17497,7 +16667,7 @@
         <v>12320815.72419296</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17530,7 +16700,7 @@
         <v>12320815.72419296</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17563,7 +16733,7 @@
         <v>12320815.72419296</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17596,7 +16766,7 @@
         <v>12320618.21919296</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17629,7 +16799,7 @@
         <v>12320618.21919296</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17662,7 +16832,7 @@
         <v>12547554.45219296</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17695,7 +16865,7 @@
         <v>12472538.91449296</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17728,7 +16898,7 @@
         <v>12472538.91449296</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17761,7 +16931,7 @@
         <v>12514980.86149296</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17794,7 +16964,7 @@
         <v>12514980.86149296</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17827,7 +16997,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17860,7 +17030,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17893,7 +17063,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17926,7 +17096,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17959,7 +17129,7 @@
         <v>12469852.19959296</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17992,7 +17162,7 @@
         <v>12382651.08549296</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18025,7 +17195,7 @@
         <v>12382651.08549296</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18058,7 +17228,7 @@
         <v>12382651.08549296</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18091,7 +17261,7 @@
         <v>10866315.44917353</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18124,7 +17294,7 @@
         <v>10172007.57507353</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18157,7 +17327,7 @@
         <v>9595381.670273529</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18190,7 +17360,7 @@
         <v>10232170.86847353</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18223,7 +17393,7 @@
         <v>10570791.56527353</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18256,7 +17426,7 @@
         <v>10570791.56527353</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -21556,7 +20726,7 @@
         <v>11996762.4968298</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21589,7 +20759,7 @@
         <v>11996762.4968298</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21622,7 +20792,7 @@
         <v>12007330.3389298</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21787,7 +20957,7 @@
         <v>11468395.4355298</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21952,7 +21122,7 @@
         <v>11428621.7659298</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21985,7 +21155,7 @@
         <v>11427422.0044298</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22018,7 +21188,7 @@
         <v>11619598.1836298</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22051,7 +21221,7 @@
         <v>11627871.2453298</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22084,7 +21254,7 @@
         <v>11571889.1305298</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22117,7 +21287,7 @@
         <v>11572413.7783298</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22183,7 +21353,7 @@
         <v>11550852.9295298</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22348,7 +21518,7 @@
         <v>11381588.9969298</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22381,7 +21551,7 @@
         <v>11453546.1204298</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22447,7 +21617,7 @@
         <v>11487802.5227298</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23470,7 +22640,7 @@
         <v>12320867.5888298</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23635,7 +22805,7 @@
         <v>13458530.3730298</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23668,7 +22838,7 @@
         <v>14188048.4538298</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23701,7 +22871,7 @@
         <v>14188048.4538298</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23734,7 +22904,7 @@
         <v>13022699.61462981</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23767,7 +22937,7 @@
         <v>13022699.61462981</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23800,7 +22970,7 @@
         <v>12712765.1786298</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23833,7 +23003,7 @@
         <v>12712765.1786298</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23866,7 +23036,7 @@
         <v>12571514.2756298</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23932,7 +23102,7 @@
         <v>12660129.4991205</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23965,7 +23135,7 @@
         <v>12663905.4319205</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23998,7 +23168,7 @@
         <v>12663905.4319205</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24031,7 +23201,7 @@
         <v>12663905.4319205</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24064,7 +23234,7 @@
         <v>12572721.7503205</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24097,7 +23267,7 @@
         <v>12572721.7503205</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24130,7 +23300,7 @@
         <v>12233469.3245205</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24163,7 +23333,7 @@
         <v>12233469.3245205</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24196,7 +23366,7 @@
         <v>12239029.1326205</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24229,7 +23399,7 @@
         <v>12082293.8905205</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24262,7 +23432,7 @@
         <v>12082293.8905205</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24295,7 +23465,7 @@
         <v>12082293.8905205</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24328,7 +23498,7 @@
         <v>12082293.8905205</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24361,7 +23531,7 @@
         <v>11816124.8716205</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24394,7 +23564,7 @@
         <v>11558435.2897205</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24427,7 +23597,7 @@
         <v>11558445.2897205</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24460,7 +23630,7 @@
         <v>11558445.2897205</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24493,7 +23663,7 @@
         <v>11572529.7967205</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24526,7 +23696,7 @@
         <v>11546549.6837205</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24559,7 +23729,7 @@
         <v>11700210.3781205</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24592,7 +23762,7 @@
         <v>11700210.3781205</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24625,7 +23795,7 @@
         <v>11700210.3781205</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24658,7 +23828,7 @@
         <v>11692872.2178205</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24691,7 +23861,7 @@
         <v>11565545.2477205</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24724,7 +23894,7 @@
         <v>11565545.2477205</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24757,7 +23927,7 @@
         <v>11565545.2477205</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24790,7 +23960,7 @@
         <v>11333812.4084205</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24823,7 +23993,7 @@
         <v>11333812.4084205</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24856,7 +24026,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24889,7 +24059,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24922,7 +24092,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24955,7 +24125,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24988,7 +24158,7 @@
         <v>11274370.0813205</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25021,7 +24191,7 @@
         <v>11419970.6252205</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -29179,7 +28349,7 @@
         <v>4844143.204731965</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29245,7 +28415,7 @@
         <v>4901293.872731964</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30378,6 +29548,6 @@
       <c r="M856" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest FNB.xlsx
+++ b/BackTest/2019-11-02 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>-1003817.4427</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -796,9 +796,11 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -833,9 +835,11 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -870,9 +874,11 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -907,9 +913,11 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -944,9 +952,11 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -2970,11 +2980,9 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -3009,11 +3017,9 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3048,11 +3054,9 @@
         <v>-248566.0778150409</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3272,11 +3276,9 @@
         <v>-465661.8153150409</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -5483,11 +5485,9 @@
         <v>-66431.21793125721</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5561,11 +5561,9 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5600,11 +5598,9 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -6897,16 +6893,18 @@
         <v>5370867.413902699</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
       <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -6932,11 +6930,15 @@
         <v>5370867.413902699</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6969,7 +6971,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6998,11 +7004,15 @@
         <v>6643870.128102698</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7031,11 +7041,15 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7064,11 +7078,15 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +7115,15 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7130,11 +7152,15 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7163,11 +7189,15 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7196,11 +7226,15 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7229,11 +7263,15 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7262,11 +7300,15 @@
         <v>9884409.263402699</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7295,11 +7337,15 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7328,11 +7374,15 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7361,11 +7411,15 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7394,11 +7448,15 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7427,11 +7485,15 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7460,11 +7522,15 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7497,7 +7563,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7530,7 +7600,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +7637,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7596,7 +7674,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7629,7 +7711,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7662,7 +7748,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7695,7 +7785,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7728,7 +7822,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7761,7 +7859,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7794,7 +7896,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7827,7 +7933,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7860,7 +7970,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7893,7 +8007,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7926,7 +8044,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7959,7 +8081,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7992,7 +8118,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8025,7 +8155,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8058,7 +8192,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8087,11 +8225,15 @@
         <v>9572465.359602695</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8120,11 +8262,15 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8153,11 +8299,15 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8186,11 +8336,15 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8219,11 +8373,15 @@
         <v>10425452.2672027</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8252,11 +8410,15 @@
         <v>10425452.2672027</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8285,11 +8447,15 @@
         <v>10733081.6855027</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8318,11 +8484,15 @@
         <v>10648808.4977027</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8351,11 +8521,15 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8384,11 +8558,15 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8417,11 +8595,15 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8450,11 +8632,15 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8483,11 +8669,15 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8516,11 +8706,15 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8549,11 +8743,15 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8586,7 +8784,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8619,7 +8821,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8652,7 +8858,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8685,7 +8895,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8718,7 +8932,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8751,7 +8969,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8784,7 +9006,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8817,7 +9043,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8850,7 +9080,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8883,7 +9117,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8916,7 +9154,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8949,7 +9191,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8982,7 +9228,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9015,7 +9265,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9044,11 +9298,15 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9077,11 +9335,15 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9110,11 +9372,15 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9143,11 +9409,15 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9176,11 +9446,15 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9209,11 +9483,15 @@
         <v>11329806.5367027</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9242,11 +9520,15 @@
         <v>11329806.5367027</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9275,11 +9557,15 @@
         <v>10631573.0031027</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9308,11 +9594,15 @@
         <v>11612060.6016027</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9341,11 +9631,15 @@
         <v>11612060.6016027</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9374,11 +9668,15 @@
         <v>10109005.3735027</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9407,11 +9705,15 @@
         <v>10960635.5959027</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9444,7 +9746,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9477,7 +9783,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9510,7 +9820,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9543,7 +9857,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9576,7 +9894,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9609,7 +9931,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9642,7 +9968,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9675,7 +10005,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9708,7 +10042,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9741,7 +10079,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9774,7 +10116,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9803,11 +10149,15 @@
         <v>11108882.2050027</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9836,11 +10186,15 @@
         <v>11053285.25370269</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9869,11 +10223,15 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9902,11 +10260,15 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9935,11 +10297,15 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9968,11 +10334,15 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10001,11 +10371,15 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10034,11 +10408,15 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10067,11 +10445,15 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10100,11 +10482,15 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10133,11 +10519,15 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10166,11 +10556,15 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10199,11 +10593,15 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10232,11 +10630,15 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10265,11 +10667,15 @@
         <v>11047013.53220269</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10298,11 +10704,15 @@
         <v>11192867.90543056</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10331,11 +10741,15 @@
         <v>11192867.90543056</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10364,11 +10778,15 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10397,11 +10815,15 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10430,11 +10852,15 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10467,7 +10893,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10496,11 +10926,15 @@
         <v>10146110.13423055</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10533,7 +10967,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10566,7 +11004,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10599,7 +11041,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10632,7 +11078,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10665,7 +11115,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10698,7 +11152,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10731,7 +11189,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10764,7 +11226,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10797,7 +11263,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10830,7 +11300,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10863,7 +11337,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10896,7 +11374,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10929,7 +11411,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10962,7 +11448,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10995,7 +11485,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11028,7 +11522,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11061,7 +11559,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11094,7 +11596,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11127,7 +11633,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11160,7 +11670,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11193,7 +11707,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11226,7 +11744,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11259,7 +11781,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11292,7 +11818,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11325,7 +11855,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11358,7 +11892,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11391,7 +11929,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11424,7 +11966,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11457,7 +12003,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11490,7 +12040,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11523,7 +12077,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11556,7 +12114,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11589,7 +12151,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11622,7 +12188,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11655,7 +12225,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11688,7 +12262,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11721,7 +12299,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11754,7 +12336,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11787,7 +12373,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11820,7 +12410,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11853,7 +12447,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11886,7 +12484,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11919,7 +12521,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11952,7 +12558,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11985,7 +12595,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12018,7 +12632,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12051,7 +12669,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12084,7 +12706,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12117,7 +12743,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12150,7 +12780,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12179,11 +12813,15 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12212,11 +12850,15 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12245,11 +12887,15 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12278,11 +12924,15 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12311,11 +12961,15 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12344,11 +12998,15 @@
         <v>13515385.2719456</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12377,11 +13035,15 @@
         <v>14933575.97466793</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12410,11 +13072,15 @@
         <v>15868011.88596793</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12443,11 +13109,15 @@
         <v>16562739.15066792</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12476,11 +13146,15 @@
         <v>17174089.1922316</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12509,11 +13183,15 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12542,11 +13220,15 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12575,11 +13257,15 @@
         <v>17244605.3553316</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12608,11 +13294,15 @@
         <v>16551387.75093908</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12641,11 +13331,15 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12674,11 +13368,15 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12707,11 +13405,15 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12740,11 +13442,15 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12773,11 +13479,15 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12806,11 +13516,15 @@
         <v>17674875.88512185</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12839,11 +13553,15 @@
         <v>18262954.84542185</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12876,7 +13594,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12909,7 +13631,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12942,7 +13668,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12975,7 +13705,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13008,7 +13742,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13041,7 +13779,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13074,7 +13816,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13107,7 +13853,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13140,7 +13890,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13173,7 +13927,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13206,7 +13964,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13239,7 +14001,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13268,14 +14034,16 @@
         <v>21914030.03882747</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
@@ -13301,7 +14069,7 @@
         <v>24336492.88101395</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13334,7 +14102,7 @@
         <v>22147381.71429976</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13367,7 +14135,7 @@
         <v>20225272.91659976</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13400,7 +14168,7 @@
         <v>20882203.77089976</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13433,7 +14201,7 @@
         <v>19194175.67129976</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13466,7 +14234,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13499,7 +14267,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13532,7 +14300,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13565,7 +14333,7 @@
         <v>17912024.69252086</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13598,7 +14366,7 @@
         <v>17510476.70882086</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13631,7 +14399,7 @@
         <v>16804009.23384179</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13664,7 +14432,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13697,7 +14465,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13730,7 +14498,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13763,7 +14531,7 @@
         <v>18072395.37534179</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13796,7 +14564,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13829,7 +14597,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13862,7 +14630,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13895,7 +14663,7 @@
         <v>18208513.05874179</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13928,7 +14696,7 @@
         <v>17577034.26614179</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13961,7 +14729,7 @@
         <v>17642436.0520697</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13994,7 +14762,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14027,7 +14795,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14060,7 +14828,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14093,7 +14861,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14126,7 +14894,7 @@
         <v>17598307.55579296</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14159,7 +14927,7 @@
         <v>17208479.14829296</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14192,7 +14960,7 @@
         <v>17340305.49029296</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14225,7 +14993,7 @@
         <v>17265689.73749296</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -28349,7 +29117,7 @@
         <v>4844143.204731965</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28415,7 +29183,7 @@
         <v>4901293.872731964</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
